--- a/left_hand_Data_Variable.xlsx
+++ b/left_hand_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>316.6383972167969</v>
+        <v>451.4717102050781</v>
       </c>
       <c r="B2" t="n">
-        <v>321.9263305664062</v>
+        <v>465.0512084960938</v>
       </c>
       <c r="C2" t="n">
-        <v>322.3473510742188</v>
+        <v>478.9609069824219</v>
       </c>
       <c r="D2" t="n">
-        <v>324.592529296875</v>
+        <v>485.3448486328125</v>
       </c>
       <c r="E2" t="n">
-        <v>330.7376708984375</v>
+        <v>500.9111938476562</v>
       </c>
       <c r="F2" t="n">
-        <v>333.3801879882812</v>
+        <v>512.1787109375</v>
       </c>
       <c r="G2" t="n">
-        <v>338.7487487792969</v>
+        <v>520.790771484375</v>
       </c>
       <c r="H2" t="n">
-        <v>340.4031982421875</v>
+        <v>531.959716796875</v>
       </c>
       <c r="I2" t="n">
-        <v>348.5960083007812</v>
+        <v>548.9972534179688</v>
       </c>
       <c r="J2" t="n">
-        <v>350.0815124511719</v>
+        <v>563.809326171875</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7223510742188</v>
+        <v>578.9849853515625</v>
       </c>
       <c r="L2" t="n">
-        <v>357.9496765136719</v>
+        <v>590.7432861328125</v>
       </c>
       <c r="M2" t="n">
-        <v>366.4530944824219</v>
+        <v>560.4306640625</v>
       </c>
       <c r="N2" t="n">
-        <v>362.4804992675781</v>
+        <v>556.331787109375</v>
       </c>
       <c r="O2" t="n">
-        <v>375.3054504394531</v>
+        <v>543.8869018554688</v>
       </c>
       <c r="P2" t="n">
-        <v>377.139404296875</v>
+        <v>541.0526123046875</v>
       </c>
       <c r="Q2" t="n">
-        <v>377.7270812988281</v>
+        <v>540.05322265625</v>
       </c>
       <c r="R2" t="n">
-        <v>377.9035034179688</v>
+        <v>539.1832885742188</v>
       </c>
       <c r="S2" t="n">
-        <v>395.4174194335938</v>
+        <v>535.243408203125</v>
       </c>
       <c r="T2" t="n">
-        <v>393.5661315917969</v>
+        <v>527.6844482421875</v>
       </c>
       <c r="U2" t="n">
-        <v>392.1716918945312</v>
+        <v>529.1109619140625</v>
       </c>
       <c r="V2" t="n">
-        <v>391.3698120117188</v>
+        <v>535.6255493164062</v>
       </c>
       <c r="W2" t="n">
-        <v>392.6527709960938</v>
+        <v>542.0098266601562</v>
       </c>
       <c r="X2" t="n">
-        <v>393.3768920898438</v>
+        <v>532.6878051757812</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9649963378906</v>
+        <v>509.032958984375</v>
       </c>
       <c r="Z2" t="n">
-        <v>398.565185546875</v>
+        <v>489.915283203125</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.5105895996094</v>
+        <v>481.6713256835938</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.5949096679688</v>
+        <v>477.8331909179688</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.7855529785156</v>
+        <v>478.8582763671875</v>
       </c>
       <c r="AD2" t="n">
-        <v>385.1436767578125</v>
+        <v>479.037841796875</v>
       </c>
       <c r="AE2" t="n">
-        <v>384.0359802246094</v>
+        <v>482.5043334960938</v>
       </c>
       <c r="AF2" t="n">
-        <v>383.8817749023438</v>
+        <v>479.3285522460938</v>
       </c>
       <c r="AG2" t="n">
-        <v>385.6884155273438</v>
+        <v>478.2185668945312</v>
       </c>
       <c r="AH2" t="n">
-        <v>386.5648193359375</v>
+        <v>477.669921875</v>
       </c>
       <c r="AI2" t="n">
-        <v>387.1654968261719</v>
+        <v>479.8744201660156</v>
       </c>
       <c r="AJ2" t="n">
-        <v>386.9706420898438</v>
+        <v>483.2470397949219</v>
       </c>
       <c r="AK2" t="n">
-        <v>386.085205078125</v>
+        <v>481.1884155273438</v>
       </c>
       <c r="AL2" t="n">
-        <v>385.7856750488281</v>
+        <v>479.4134521484375</v>
       </c>
       <c r="AM2" t="n">
-        <v>385.6100158691406</v>
+        <v>480.6947326660156</v>
       </c>
       <c r="AN2" t="n">
-        <v>385.5182495117188</v>
+        <v>479.8274536132812</v>
       </c>
       <c r="AO2" t="n">
-        <v>388.3590087890625</v>
+        <v>478.3098754882812</v>
       </c>
       <c r="AP2" t="n">
-        <v>386.0686645507812</v>
+        <v>478.1415405273438</v>
       </c>
       <c r="AQ2" t="n">
-        <v>382.6942749023438</v>
+        <v>478.4298095703125</v>
       </c>
       <c r="AR2" t="n">
-        <v>379.2842407226562</v>
+        <v>482.2811889648438</v>
       </c>
       <c r="AS2" t="n">
-        <v>378.9578552246094</v>
+        <v>487.1428833007812</v>
       </c>
       <c r="AT2" t="n">
-        <v>375.1031494140625</v>
+        <v>489.06103515625</v>
       </c>
       <c r="AU2" t="n">
-        <v>374.4097595214844</v>
+        <v>490.4406127929688</v>
       </c>
       <c r="AV2" t="n">
-        <v>373.7969360351562</v>
+        <v>495.2162170410156</v>
       </c>
       <c r="AW2" t="n">
-        <v>372.435302734375</v>
+        <v>501.121826171875</v>
       </c>
       <c r="AX2" t="n">
-        <v>370.6467895507812</v>
+        <v>505.7777709960938</v>
       </c>
       <c r="AY2" t="n">
-        <v>368.73046875</v>
+        <v>511.1222534179688</v>
       </c>
       <c r="AZ2" t="n">
-        <v>368.5126342773438</v>
+        <v>520.1425170898438</v>
       </c>
       <c r="BA2" t="n">
-        <v>369.0255737304688</v>
+        <v>548.6837768554688</v>
       </c>
       <c r="BB2" t="n">
-        <v>368.1250610351562</v>
+        <v>575.4647216796875</v>
       </c>
       <c r="BC2" t="n">
-        <v>368.3428344726562</v>
+        <v>596.8486328125</v>
       </c>
       <c r="BD2" t="n">
-        <v>367.9927368164062</v>
+        <v>609.77294921875</v>
       </c>
       <c r="BE2" t="n">
-        <v>367.4398193359375</v>
+        <v>619.3041381835938</v>
       </c>
       <c r="BF2" t="n">
-        <v>366.3388366699219</v>
+        <v>623.922607421875</v>
       </c>
       <c r="BG2" t="n">
-        <v>365.5157165527344</v>
+        <v>625.5423583984375</v>
       </c>
       <c r="BH2" t="n">
-        <v>363.4733276367188</v>
+        <v>627.8756103515625</v>
       </c>
       <c r="BI2" t="n">
-        <v>359.981689453125</v>
+        <v>626.07763671875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>358.0499572753906</v>
+        <v>624.9945068359375</v>
       </c>
       <c r="BK2" t="n">
-        <v>357.3865966796875</v>
+        <v>621.4185791015625</v>
       </c>
       <c r="BL2" t="n">
-        <v>355.0451354980469</v>
+        <v>617.0285034179688</v>
       </c>
       <c r="BM2" t="n">
-        <v>354.6661987304688</v>
+        <v>608.8851928710938</v>
       </c>
       <c r="BN2" t="n">
-        <v>353.4232177734375</v>
+        <v>603.697509765625</v>
       </c>
       <c r="BO2" t="n">
-        <v>351.4023132324219</v>
+        <v>595.3394165039062</v>
       </c>
       <c r="BP2" t="n">
-        <v>349.6868896484375</v>
+        <v>591.9888305664062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>343.947265625</v>
+        <v>591.8607177734375</v>
       </c>
       <c r="BR2" t="n">
-        <v>346.3832092285156</v>
+        <v>591.0169677734375</v>
       </c>
       <c r="BS2" t="n">
-        <v>345.5028991699219</v>
+        <v>589.9649658203125</v>
       </c>
       <c r="BT2" t="n">
-        <v>344.266845703125</v>
+        <v>589.6409912109375</v>
       </c>
       <c r="BU2" t="n">
-        <v>344.614013671875</v>
+        <v>589.2832641601562</v>
       </c>
       <c r="BV2" t="n">
-        <v>343.6048583984375</v>
+        <v>588.8280029296875</v>
       </c>
       <c r="BW2" t="n">
-        <v>342.0271606445312</v>
+        <v>588.7635498046875</v>
       </c>
       <c r="BX2" t="n">
-        <v>338.3445434570312</v>
+        <v>588.6758422851562</v>
       </c>
       <c r="BY2" t="n">
-        <v>333.5658264160156</v>
+        <v>589.2754516601562</v>
       </c>
       <c r="BZ2" t="n">
-        <v>333.6091613769531</v>
+        <v>590.5949096679688</v>
       </c>
       <c r="CA2" t="n">
-        <v>333.2243041992188</v>
+        <v>592.5465698242188</v>
       </c>
       <c r="CB2" t="n">
-        <v>334.9279479980469</v>
+        <v>594.70703125</v>
       </c>
       <c r="CC2" t="n">
-        <v>334.8965759277344</v>
+        <v>599.226318359375</v>
       </c>
       <c r="CD2" t="n">
-        <v>330.88525390625</v>
+        <v>605.2423095703125</v>
       </c>
       <c r="CE2" t="n">
-        <v>335.2715454101562</v>
+        <v>616.6802368164062</v>
       </c>
       <c r="CF2" t="n">
-        <v>332.2429809570312</v>
+        <v>620.3763427734375</v>
       </c>
       <c r="CG2" t="n">
-        <v>334.3114624023438</v>
+        <v>623.7109375</v>
       </c>
       <c r="CH2" t="n">
-        <v>333.5431518554688</v>
+        <v>628.8984985351562</v>
       </c>
       <c r="CI2" t="n">
-        <v>337.194091796875</v>
+        <v>634.732177734375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>326.0742492675781</v>
+        <v>641.2452392578125</v>
       </c>
       <c r="CK2" t="n">
-        <v>327.753173828125</v>
+        <v>646.2908935546875</v>
       </c>
       <c r="CL2" t="n">
-        <v>334.5863647460938</v>
+        <v>652.657958984375</v>
       </c>
       <c r="CM2" t="n">
-        <v>335.4474487304688</v>
+        <v>661.927734375</v>
       </c>
       <c r="CN2" t="n">
-        <v>327.6796264648438</v>
+        <v>675.1903076171875</v>
       </c>
       <c r="CO2" t="n">
-        <v>340.8446044921875</v>
+        <v>674.089111328125</v>
       </c>
       <c r="CP2" t="n">
-        <v>339.5721740722656</v>
+        <v>672.0043334960938</v>
       </c>
       <c r="CQ2" t="n">
-        <v>338.3988037109375</v>
+        <v>668.5335693359375</v>
       </c>
       <c r="CR2" t="n">
-        <v>338.0035400390625</v>
+        <v>662.657958984375</v>
       </c>
       <c r="CS2" t="n">
-        <v>337.402587890625</v>
+        <v>639.8155517578125</v>
       </c>
       <c r="CT2" t="n">
-        <v>339.0854187011719</v>
+        <v>587.2549438476562</v>
       </c>
       <c r="CU2" t="n">
-        <v>338.7752990722656</v>
+        <v>554.850341796875</v>
       </c>
       <c r="CV2" t="n">
-        <v>337.470947265625</v>
+        <v>528.1533203125</v>
       </c>
       <c r="CW2" t="n">
-        <v>333.1989135742188</v>
+        <v>512.9256591796875</v>
       </c>
       <c r="CX2" t="n">
-        <v>330.8231811523438</v>
+        <v>481.801025390625</v>
       </c>
       <c r="CY2" t="n">
-        <v>327.1802368164062</v>
+        <v>467.7814025878906</v>
       </c>
       <c r="CZ2" t="n">
-        <v>327.259765625</v>
+        <v>460.3156127929688</v>
       </c>
       <c r="DA2" t="n">
-        <v>324.4190063476562</v>
+        <v>457.8353271484375</v>
       </c>
       <c r="DB2" t="n">
-        <v>324.1818237304688</v>
+        <v>457.1891784667969</v>
       </c>
       <c r="DC2" t="n">
-        <v>325.2645263671875</v>
+        <v>458.4342041015625</v>
       </c>
       <c r="DD2" t="n">
-        <v>325.7066650390625</v>
+        <v>456.6107482910156</v>
       </c>
       <c r="DE2" t="n">
-        <v>326.0913696289062</v>
+        <v>447.5507202148438</v>
       </c>
       <c r="DF2" t="n">
-        <v>319.3246154785156</v>
+        <v>438.5933837890625</v>
       </c>
       <c r="DG2" t="n">
-        <v>318.1553039550781</v>
+        <v>432.0560302734375</v>
       </c>
       <c r="DH2" t="n">
-        <v>318.853515625</v>
+        <v>428.8724365234375</v>
       </c>
       <c r="DI2" t="n">
-        <v>320.8917541503906</v>
+        <v>425.6387939453125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>332.6114501953125</v>
+        <v>425.3001708984375</v>
       </c>
       <c r="DK2" t="n">
-        <v>322.1206665039062</v>
+        <v>425.4289245605469</v>
       </c>
       <c r="DL2" t="n">
-        <v>329.8699951171875</v>
+        <v>425.2746887207031</v>
       </c>
       <c r="DM2" t="n">
-        <v>331.5917358398438</v>
+        <v>425.2819519042969</v>
       </c>
       <c r="DN2" t="n">
-        <v>329.2479858398438</v>
+        <v>429.8264770507812</v>
       </c>
       <c r="DO2" t="n">
-        <v>343.7409057617188</v>
+        <v>433.4107666015625</v>
       </c>
       <c r="DP2" t="n">
-        <v>335.3784484863281</v>
+        <v>435.0564575195312</v>
       </c>
       <c r="DQ2" t="n">
-        <v>339.75537109375</v>
+        <v>439.4670104980469</v>
       </c>
       <c r="DR2" t="n">
-        <v>350.5013427734375</v>
+        <v>441.8568115234375</v>
       </c>
       <c r="DS2" t="n">
-        <v>356.9063720703125</v>
+        <v>444.1697387695312</v>
       </c>
       <c r="DT2" t="n">
-        <v>357.3800048828125</v>
+        <v>445.069091796875</v>
       </c>
       <c r="DU2" t="n">
-        <v>364.0576171875</v>
+        <v>445.81103515625</v>
       </c>
       <c r="DV2" t="n">
-        <v>347.3052368164062</v>
+        <v>444.201416015625</v>
       </c>
       <c r="DW2" t="n">
-        <v>371.8138427734375</v>
+        <v>441.0062255859375</v>
       </c>
       <c r="DX2" t="n">
-        <v>371.059326171875</v>
+        <v>439.504150390625</v>
       </c>
       <c r="DY2" t="n">
-        <v>372.0955810546875</v>
+        <v>438.31640625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>375.8297119140625</v>
+        <v>435.9381408691406</v>
       </c>
       <c r="EA2" t="n">
-        <v>374.1049499511719</v>
+        <v>435.8271789550781</v>
       </c>
       <c r="EB2" t="n">
-        <v>374.0481262207031</v>
+        <v>440.80224609375</v>
       </c>
       <c r="EC2" t="n">
-        <v>374.6065063476562</v>
+        <v>450.7708129882812</v>
       </c>
       <c r="ED2" t="n">
-        <v>372.9534301757812</v>
+        <v>457.3027038574219</v>
       </c>
       <c r="EE2" t="n">
-        <v>373.8215942382812</v>
+        <v>471.943359375</v>
       </c>
       <c r="EF2" t="n">
-        <v>374.5230712890625</v>
+        <v>493.3423156738281</v>
       </c>
       <c r="EG2" t="n">
-        <v>369.991455078125</v>
+        <v>508.0344848632812</v>
       </c>
       <c r="EH2" t="n">
-        <v>365.2286987304688</v>
+        <v>514.9404907226562</v>
       </c>
       <c r="EI2" t="n">
-        <v>335.2203369140625</v>
+        <v>524.6956787109375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>322.4228515625</v>
+        <v>530.4793090820312</v>
       </c>
       <c r="EK2" t="n">
-        <v>328.7913818359375</v>
+        <v>534.855712890625</v>
       </c>
       <c r="EL2" t="n">
-        <v>331.2503662109375</v>
+        <v>534.747314453125</v>
       </c>
       <c r="EM2" t="n">
-        <v>330.2163696289062</v>
+        <v>538.2730102539062</v>
       </c>
       <c r="EN2" t="n">
-        <v>324.04443359375</v>
+        <v>539.95166015625</v>
       </c>
       <c r="EO2" t="n">
-        <v>307.9971618652344</v>
+        <v>537.7188110351562</v>
       </c>
       <c r="EP2" t="n">
-        <v>307.6723327636719</v>
+        <v>537.6497192382812</v>
       </c>
       <c r="EQ2" t="n">
-        <v>349.8639526367188</v>
+        <v>542.5947265625</v>
       </c>
       <c r="ER2" t="n">
-        <v>347.1794128417969</v>
+        <v>544.3584594726562</v>
       </c>
       <c r="ES2" t="n">
-        <v>342.2948608398438</v>
+        <v>542.316650390625</v>
       </c>
       <c r="ET2" t="n">
-        <v>344.2880859375</v>
+        <v>541.9033813476562</v>
       </c>
       <c r="EU2" t="n">
-        <v>344.1962280273438</v>
+        <v>542.7635498046875</v>
       </c>
       <c r="EV2" t="n">
-        <v>334.5683288574219</v>
+        <v>543.0281372070312</v>
       </c>
       <c r="EW2" t="n">
-        <v>326.1569213867188</v>
+        <v>540.354736328125</v>
       </c>
       <c r="EX2" t="n">
-        <v>331.0045776367188</v>
+        <v>536.9252319335938</v>
       </c>
       <c r="EY2" t="n">
-        <v>337.3514099121094</v>
+        <v>533.5469360351562</v>
       </c>
       <c r="EZ2" t="n">
-        <v>334.40673828125</v>
+        <v>533.5</v>
       </c>
       <c r="FA2" t="n">
-        <v>324.7662658691406</v>
+        <v>535.0722045898438</v>
       </c>
       <c r="FB2" t="n">
-        <v>327.4620971679688</v>
+        <v>534.9530029296875</v>
       </c>
       <c r="FC2" t="n">
-        <v>333.7396545410156</v>
+        <v>535.2334594726562</v>
       </c>
       <c r="FD2" t="n">
-        <v>334.9811401367188</v>
+        <v>533.6854248046875</v>
       </c>
       <c r="FE2" t="n">
-        <v>336.1171875</v>
+        <v>533.6179809570312</v>
       </c>
       <c r="FF2" t="n">
-        <v>357.4977111816406</v>
+        <v>532.72900390625</v>
       </c>
       <c r="FG2" t="n">
-        <v>353.697998046875</v>
+        <v>531.13720703125</v>
       </c>
       <c r="FH2" t="n">
-        <v>349.4369201660156</v>
+        <v>529.8038330078125</v>
       </c>
       <c r="FI2" t="n">
-        <v>348.2158813476562</v>
+        <v>528.3373413085938</v>
       </c>
       <c r="FJ2" t="n">
-        <v>347.3502197265625</v>
+        <v>531.4227294921875</v>
       </c>
       <c r="FK2" t="n">
-        <v>349.9437255859375</v>
+        <v>545.4729614257812</v>
       </c>
       <c r="FL2" t="n">
-        <v>351.8517761230469</v>
+        <v>548.2738037109375</v>
       </c>
       <c r="FM2" t="n">
-        <v>340.3128662109375</v>
+        <v>543.0889282226562</v>
       </c>
       <c r="FN2" t="n">
-        <v>321.5876770019531</v>
+        <v>535.57861328125</v>
       </c>
       <c r="FO2" t="n">
-        <v>317.9562683105469</v>
+        <v>545.8755493164062</v>
       </c>
       <c r="FP2" t="n">
-        <v>340.0369873046875</v>
+        <v>537.9944458007812</v>
       </c>
       <c r="FQ2" t="n">
-        <v>339.2798461914062</v>
+        <v>509.2381591796875</v>
       </c>
       <c r="FR2" t="n">
-        <v>330.012451171875</v>
+        <v>493.6297912597656</v>
       </c>
       <c r="FS2" t="n">
-        <v>320.7268676757812</v>
+        <v>487.809814453125</v>
       </c>
       <c r="FT2" t="n">
-        <v>329.638427734375</v>
+        <v>475.8972473144531</v>
       </c>
       <c r="FU2" t="n">
-        <v>329.2489013671875</v>
+        <v>470.3686218261719</v>
       </c>
       <c r="FV2" t="n">
-        <v>329.1275024414062</v>
+        <v>465.3630981445312</v>
       </c>
       <c r="FW2" t="n">
-        <v>328.9339904785156</v>
+        <v>457.6027221679688</v>
       </c>
       <c r="FX2" t="n">
-        <v>328.8977661132812</v>
+        <v>456.1265869140625</v>
       </c>
       <c r="FY2" t="n">
-        <v>328.5228881835938</v>
+        <v>454.4290466308594</v>
       </c>
       <c r="FZ2" t="n">
-        <v>328.0008239746094</v>
+        <v>452.3250122070312</v>
       </c>
       <c r="GA2" t="n">
-        <v>325.3793640136719</v>
+        <v>452.6001586914062</v>
       </c>
       <c r="GB2" t="n">
-        <v>324.2284545898438</v>
+        <v>452.6532592773438</v>
       </c>
       <c r="GC2" t="n">
-        <v>301.6874694824219</v>
+        <v>452.0450134277344</v>
       </c>
       <c r="GD2" t="n">
-        <v>306.1448669433594</v>
+        <v>449.1529541015625</v>
       </c>
       <c r="GE2" t="n">
-        <v>304.981689453125</v>
+        <v>448.8511657714844</v>
       </c>
       <c r="GF2" t="n">
-        <v>309.3452453613281</v>
+        <v>448.45849609375</v>
       </c>
       <c r="GG2" t="n">
-        <v>311.3532104492188</v>
+        <v>447.6686096191406</v>
       </c>
       <c r="GH2" t="n">
-        <v>310.66357421875</v>
+        <v>446.3203125</v>
       </c>
       <c r="GI2" t="n">
-        <v>315.1211547851562</v>
+        <v>445.9274291992188</v>
       </c>
       <c r="GJ2" t="n">
-        <v>313.2826843261719</v>
+        <v>446.7471923828125</v>
       </c>
       <c r="GK2" t="n">
-        <v>313.789794921875</v>
+        <v>444.5952758789062</v>
       </c>
       <c r="GL2" t="n">
-        <v>320.4761352539062</v>
+        <v>439.1739501953125</v>
       </c>
       <c r="GM2" t="n">
-        <v>324.2614440917969</v>
+        <v>437.1298217773438</v>
       </c>
       <c r="GN2" t="n">
-        <v>320.1473388671875</v>
+        <v>434.7385864257812</v>
       </c>
       <c r="GO2" t="n">
-        <v>318.5333251953125</v>
+        <v>428.5501098632812</v>
       </c>
       <c r="GP2" t="n">
-        <v>320.0140991210938</v>
+        <v>420.9270629882812</v>
       </c>
       <c r="GQ2" t="n">
-        <v>318.6004028320312</v>
+        <v>414.7734069824219</v>
       </c>
       <c r="GR2" t="n">
-        <v>319.0074157714844</v>
+        <v>403.7493286132812</v>
       </c>
       <c r="GS2" t="n">
-        <v>328.9934692382812</v>
+        <v>397.7667236328125</v>
       </c>
       <c r="GT2" t="n">
-        <v>329.9309692382812</v>
+        <v>396.7294616699219</v>
       </c>
       <c r="GU2" t="n">
-        <v>329.9977416992188</v>
+        <v>386.431640625</v>
       </c>
       <c r="GV2" t="n">
-        <v>329.51806640625</v>
+        <v>381.4456787109375</v>
       </c>
       <c r="GW2" t="n">
-        <v>328.4718627929688</v>
+        <v>380.0347900390625</v>
       </c>
       <c r="GX2" t="n">
-        <v>324.09228515625</v>
+        <v>380.6823120117188</v>
       </c>
       <c r="GY2" t="n">
-        <v>323.0087280273438</v>
+        <v>380.751708984375</v>
       </c>
       <c r="GZ2" t="n">
-        <v>404.3161315917969</v>
+        <v>380.1260070800781</v>
       </c>
       <c r="HA2" t="n">
-        <v>410.9415283203125</v>
+        <v>379.9119567871094</v>
       </c>
       <c r="HB2" t="n">
-        <v>351.2643737792969</v>
+        <v>378.76025390625</v>
       </c>
       <c r="HC2" t="n">
-        <v>309.1777648925781</v>
+        <v>376.8931274414062</v>
       </c>
       <c r="HD2" t="n">
-        <v>273.4367980957031</v>
+        <v>375.9534301757812</v>
       </c>
       <c r="HE2" t="n">
-        <v>269.5168762207031</v>
+        <v>375.2327880859375</v>
       </c>
       <c r="HF2" t="n">
-        <v>263.2994384765625</v>
+        <v>374.0448608398438</v>
       </c>
       <c r="HG2" t="n">
-        <v>258.1909790039062</v>
+        <v>381.013916015625</v>
       </c>
       <c r="HH2" t="n">
-        <v>262.8323669433594</v>
+        <v>361.0751037597656</v>
       </c>
       <c r="HI2" t="n">
-        <v>257.5471496582031</v>
+        <v>381.4149475097656</v>
       </c>
       <c r="HJ2" t="n">
-        <v>255.2417602539062</v>
+        <v>385.78466796875</v>
       </c>
       <c r="HK2" t="n">
-        <v>259.2092590332031</v>
+        <v>402.0137023925781</v>
       </c>
       <c r="HL2" t="n">
-        <v>277.4190063476562</v>
+        <v>412.4511108398438</v>
       </c>
       <c r="HM2" t="n">
-        <v>291.1867980957031</v>
+        <v>409.0767211914062</v>
       </c>
       <c r="HN2" t="n">
-        <v>304.8541259765625</v>
+        <v>412.7003784179688</v>
       </c>
       <c r="HO2" t="n">
-        <v>303.3331298828125</v>
+        <v>434.5271606445312</v>
       </c>
       <c r="HP2" t="n">
-        <v>292.0992126464844</v>
+        <v>443.2314453125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>261.826904296875</v>
+        <v>446.167236328125</v>
       </c>
       <c r="HR2" t="n">
-        <v>205.0198669433594</v>
+        <v>460.7106323242188</v>
       </c>
       <c r="HS2" t="n">
-        <v>168.841552734375</v>
+        <v>470.0454711914062</v>
       </c>
       <c r="HT2" t="n">
-        <v>168.3344268798828</v>
+        <v>475.3289794921875</v>
       </c>
       <c r="HU2" t="n">
-        <v>158.9021606445312</v>
+        <v>474.520751953125</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>476.6154174804688</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>480.8058471679688</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>479.9832153320312</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>480.7791137695312</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>480.0487670898438</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>479.1419067382812</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>477.3709411621094</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>473.9120788574219</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>472.1854248046875</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>467.5927429199219</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>464.0119018554688</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>465.0899658203125</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>464.90673828125</v>
+      </c>
+      <c r="II2" t="n">
+        <v>455.1088256835938</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>451.523193359375</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>441.1660766601562</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>439.4420776367188</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>426.2092590332031</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>413.8220825195312</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>417.2711791992188</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>413.2157897949219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>400.55078125</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>402.9217834472656</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>399.8424682617188</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>386.857666015625</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>385.126708984375</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>390.3336181640625</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>391.7310180664062</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>392.0815734863281</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>391.6925048828125</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>391.6296997070312</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>391.9911499023438</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>392.4786987304688</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>392.9676818847656</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>394.6154479980469</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>407.2434692382812</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>409.1195678710938</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>417.7176208496094</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>424.1883850097656</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>437.0885925292969</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>439.6820678710938</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>450.9302062988281</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>460.2607727050781</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>465.912841796875</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>472.6528930664062</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>472.7462463378906</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>471.8378295898438</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>472.1749572753906</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>472.2012329101562</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>471.5929870605469</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>471.5661010742188</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>472.0052795410156</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>472.5349426269531</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>473.6771850585938</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>475.1610107421875</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>478.11865234375</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>480.1044311523438</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>484.7878723144531</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>497.7129516601562</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>526.9498901367188</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>576.2459716796875</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>573.5359497070312</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>582.0721435546875</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>566.0950317382812</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>562.9338989257812</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>562.8619995117188</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>571.1318969726562</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>569.8575439453125</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>568.7399291992188</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>565.4268798828125</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>561.3182373046875</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>552.0675048828125</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>535.6915893554688</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>508.3956298828125</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>491.452392578125</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>474.4454956054688</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>470.47900390625</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>467.567626953125</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>469.0574645996094</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>470.8899230957031</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>473.2062377929688</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>478.3233642578125</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>489.2378234863281</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>493.2658386230469</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>493.75732421875</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>493.4129333496094</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>490.417236328125</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>485.2256469726562</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>484.3193969726562</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>485.3262939453125</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>487.1819458007812</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>493.216796875</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>505.2239379882812</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>521.5923461914062</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>534.5872192382812</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>550.4443969726562</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>571.9105834960938</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>583.2937622070312</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>599.9623413085938</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>612.3341064453125</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>633.5242919921875</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>653.5394287109375</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>569.047607421875</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>567.8836669921875</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>627.7615356445312</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>658.6144409179688</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>681.028076171875</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>652.6942138671875</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>624.9487915039062</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>628.7061157226562</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>606.9923706054688</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>574.394775390625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>539.7365112304688</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>535.0703735351562</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>535.9446411132812</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>541.73291015625</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>542.5180053710938</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>536.44677734375</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>521.0994262695312</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>516.3089599609375</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>491.9364013671875</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>461.5823974609375</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>489.8834838867188</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>479.4629516601562</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>517.3510131835938</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>544.6013793945312</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>522.6782836914062</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>432.1275329589844</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>530.8135375976562</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>430.6640930175781</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>537.8532104492188</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>414.5124816894531</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>388.7384338378906</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>375.2786254882812</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>435.1009826660156</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>445.8896179199219</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>502.8491516113281</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>607.3500366210938</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>721.7662353515625</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>717.0653076171875</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>642.279541015625</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>635.9149780273438</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>597.1939086914062</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>516.049560546875</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>433.6712646484375</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>481.7227783203125</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>467.1277160644531</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>525.0140380859375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>479.2204284667969</v>
+        <v>409.8050842285156</v>
       </c>
       <c r="B3" t="n">
-        <v>462.9529724121094</v>
+        <v>399.2946166992188</v>
       </c>
       <c r="C3" t="n">
-        <v>456.7224731445312</v>
+        <v>394.7077941894531</v>
       </c>
       <c r="D3" t="n">
-        <v>447.4641418457031</v>
+        <v>392.7742614746094</v>
       </c>
       <c r="E3" t="n">
-        <v>443.88427734375</v>
+        <v>393.2394714355469</v>
       </c>
       <c r="F3" t="n">
-        <v>438.9489440917969</v>
+        <v>369.3002624511719</v>
       </c>
       <c r="G3" t="n">
-        <v>440.4372253417969</v>
+        <v>370.7398681640625</v>
       </c>
       <c r="H3" t="n">
-        <v>441.3140869140625</v>
+        <v>372.71728515625</v>
       </c>
       <c r="I3" t="n">
-        <v>436.7519226074219</v>
+        <v>373.1380310058594</v>
       </c>
       <c r="J3" t="n">
-        <v>439.7172546386719</v>
+        <v>374.2957153320312</v>
       </c>
       <c r="K3" t="n">
-        <v>437.38623046875</v>
+        <v>379.4139099121094</v>
       </c>
       <c r="L3" t="n">
-        <v>440.2848510742188</v>
+        <v>382.7203674316406</v>
       </c>
       <c r="M3" t="n">
-        <v>436.343994140625</v>
+        <v>366.9721374511719</v>
       </c>
       <c r="N3" t="n">
-        <v>432.8936767578125</v>
+        <v>361.2098999023438</v>
       </c>
       <c r="O3" t="n">
-        <v>401.284912109375</v>
+        <v>358.8861083984375</v>
       </c>
       <c r="P3" t="n">
-        <v>390.0469970703125</v>
+        <v>359.8659973144531</v>
       </c>
       <c r="Q3" t="n">
-        <v>384.6977233886719</v>
+        <v>361.2306518554688</v>
       </c>
       <c r="R3" t="n">
-        <v>377.7604370117188</v>
+        <v>368.9681091308594</v>
       </c>
       <c r="S3" t="n">
-        <v>327.4315795898438</v>
+        <v>372.6888427734375</v>
       </c>
       <c r="T3" t="n">
-        <v>325.0517578125</v>
+        <v>374.8382873535156</v>
       </c>
       <c r="U3" t="n">
-        <v>322.7892150878906</v>
+        <v>376.7312622070312</v>
       </c>
       <c r="V3" t="n">
-        <v>320.1395263671875</v>
+        <v>381.3882141113281</v>
       </c>
       <c r="W3" t="n">
-        <v>321.0518493652344</v>
+        <v>383.7382507324219</v>
       </c>
       <c r="X3" t="n">
-        <v>333.6080932617188</v>
+        <v>382.6457824707031</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.8381042480469</v>
+        <v>377.8828735351562</v>
       </c>
       <c r="Z3" t="n">
-        <v>331.2464294433594</v>
+        <v>376.7571105957031</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.4114074707031</v>
+        <v>387.27392578125</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.3226623535156</v>
+        <v>394.4538879394531</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.2282104492188</v>
+        <v>397.3225708007812</v>
       </c>
       <c r="AD3" t="n">
-        <v>312.424560546875</v>
+        <v>398.7877197265625</v>
       </c>
       <c r="AE3" t="n">
-        <v>311.43505859375</v>
+        <v>396.4996337890625</v>
       </c>
       <c r="AF3" t="n">
-        <v>308.3348083496094</v>
+        <v>394.5817565917969</v>
       </c>
       <c r="AG3" t="n">
-        <v>305.4115905761719</v>
+        <v>393.6162109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>298.5139465332031</v>
+        <v>389.0360412597656</v>
       </c>
       <c r="AI3" t="n">
-        <v>297.2681579589844</v>
+        <v>381.2007446289062</v>
       </c>
       <c r="AJ3" t="n">
-        <v>296.6170959472656</v>
+        <v>373.3507995605469</v>
       </c>
       <c r="AK3" t="n">
-        <v>293.8448181152344</v>
+        <v>372.8363342285156</v>
       </c>
       <c r="AL3" t="n">
-        <v>293.0673828125</v>
+        <v>371.8080139160156</v>
       </c>
       <c r="AM3" t="n">
-        <v>293.9878234863281</v>
+        <v>371.219970703125</v>
       </c>
       <c r="AN3" t="n">
-        <v>292.0028686523438</v>
+        <v>372.0272216796875</v>
       </c>
       <c r="AO3" t="n">
-        <v>290.8609924316406</v>
+        <v>374.0746765136719</v>
       </c>
       <c r="AP3" t="n">
-        <v>290.5858764648438</v>
+        <v>374.2336120605469</v>
       </c>
       <c r="AQ3" t="n">
-        <v>293.1008605957031</v>
+        <v>374.6711120605469</v>
       </c>
       <c r="AR3" t="n">
-        <v>296.8666381835938</v>
+        <v>374.4356689453125</v>
       </c>
       <c r="AS3" t="n">
-        <v>294.8317565917969</v>
+        <v>373.4713439941406</v>
       </c>
       <c r="AT3" t="n">
-        <v>295.6324157714844</v>
+        <v>373.8079528808594</v>
       </c>
       <c r="AU3" t="n">
-        <v>294.7980346679688</v>
+        <v>376.0431823730469</v>
       </c>
       <c r="AV3" t="n">
-        <v>290.4464721679688</v>
+        <v>379.7687683105469</v>
       </c>
       <c r="AW3" t="n">
-        <v>290.8403015136719</v>
+        <v>381.4126586914062</v>
       </c>
       <c r="AX3" t="n">
-        <v>291.2083435058594</v>
+        <v>380.1329345703125</v>
       </c>
       <c r="AY3" t="n">
-        <v>293.8844299316406</v>
+        <v>381.3015747070312</v>
       </c>
       <c r="AZ3" t="n">
-        <v>290.4237976074219</v>
+        <v>376.9615783691406</v>
       </c>
       <c r="BA3" t="n">
-        <v>284.9233093261719</v>
+        <v>360.6556091308594</v>
       </c>
       <c r="BB3" t="n">
-        <v>288.633544921875</v>
+        <v>336.4029541015625</v>
       </c>
       <c r="BC3" t="n">
-        <v>286.3464965820312</v>
+        <v>315.1594848632812</v>
       </c>
       <c r="BD3" t="n">
-        <v>289.0274658203125</v>
+        <v>294.0341796875</v>
       </c>
       <c r="BE3" t="n">
-        <v>284.3044738769531</v>
+        <v>268.3743896484375</v>
       </c>
       <c r="BF3" t="n">
-        <v>284.2370910644531</v>
+        <v>241.6388549804688</v>
       </c>
       <c r="BG3" t="n">
-        <v>285.5014953613281</v>
+        <v>221.3241882324219</v>
       </c>
       <c r="BH3" t="n">
-        <v>289.4185180664062</v>
+        <v>209.1523895263672</v>
       </c>
       <c r="BI3" t="n">
-        <v>288.283935546875</v>
+        <v>200.6942443847656</v>
       </c>
       <c r="BJ3" t="n">
-        <v>291.7680358886719</v>
+        <v>196.7666625976562</v>
       </c>
       <c r="BK3" t="n">
-        <v>295.0538024902344</v>
+        <v>191.7783203125</v>
       </c>
       <c r="BL3" t="n">
-        <v>296.6191101074219</v>
+        <v>189.9709625244141</v>
       </c>
       <c r="BM3" t="n">
-        <v>290.1669311523438</v>
+        <v>188.7254180908203</v>
       </c>
       <c r="BN3" t="n">
-        <v>286.9821472167969</v>
+        <v>186.0432281494141</v>
       </c>
       <c r="BO3" t="n">
-        <v>284.5059509277344</v>
+        <v>179.2278594970703</v>
       </c>
       <c r="BP3" t="n">
-        <v>283.7043151855469</v>
+        <v>176.6645202636719</v>
       </c>
       <c r="BQ3" t="n">
-        <v>283.4766845703125</v>
+        <v>175.3585510253906</v>
       </c>
       <c r="BR3" t="n">
-        <v>283.3385925292969</v>
+        <v>175.9501800537109</v>
       </c>
       <c r="BS3" t="n">
-        <v>279.5025329589844</v>
+        <v>175.47998046875</v>
       </c>
       <c r="BT3" t="n">
-        <v>278.0280151367188</v>
+        <v>175.9066009521484</v>
       </c>
       <c r="BU3" t="n">
-        <v>280.1366271972656</v>
+        <v>175.5244445800781</v>
       </c>
       <c r="BV3" t="n">
-        <v>276.8678894042969</v>
+        <v>174.7563781738281</v>
       </c>
       <c r="BW3" t="n">
-        <v>281.1261596679688</v>
+        <v>173.0005645751953</v>
       </c>
       <c r="BX3" t="n">
-        <v>275.7429809570312</v>
+        <v>169.4685974121094</v>
       </c>
       <c r="BY3" t="n">
-        <v>276.7219543457031</v>
+        <v>161.6922607421875</v>
       </c>
       <c r="BZ3" t="n">
-        <v>276.0754699707031</v>
+        <v>160.4122772216797</v>
       </c>
       <c r="CA3" t="n">
-        <v>276.0484619140625</v>
+        <v>158.5405578613281</v>
       </c>
       <c r="CB3" t="n">
-        <v>272.5177307128906</v>
+        <v>156.2334136962891</v>
       </c>
       <c r="CC3" t="n">
-        <v>271.7429504394531</v>
+        <v>155.2534027099609</v>
       </c>
       <c r="CD3" t="n">
-        <v>275.4508361816406</v>
+        <v>155.8497772216797</v>
       </c>
       <c r="CE3" t="n">
-        <v>271.0805053710938</v>
+        <v>154.0418090820312</v>
       </c>
       <c r="CF3" t="n">
-        <v>274.756591796875</v>
+        <v>151.8130340576172</v>
       </c>
       <c r="CG3" t="n">
-        <v>274.2826232910156</v>
+        <v>150.5946197509766</v>
       </c>
       <c r="CH3" t="n">
-        <v>274.4917907714844</v>
+        <v>148.5156555175781</v>
       </c>
       <c r="CI3" t="n">
-        <v>270.1717834472656</v>
+        <v>148.8143157958984</v>
       </c>
       <c r="CJ3" t="n">
-        <v>286.0053100585938</v>
+        <v>147.9207305908203</v>
       </c>
       <c r="CK3" t="n">
-        <v>286.0180053710938</v>
+        <v>149.8993072509766</v>
       </c>
       <c r="CL3" t="n">
-        <v>277.0038757324219</v>
+        <v>154.5082702636719</v>
       </c>
       <c r="CM3" t="n">
-        <v>271.9001159667969</v>
+        <v>168.5471649169922</v>
       </c>
       <c r="CN3" t="n">
-        <v>278.0289001464844</v>
+        <v>191.464111328125</v>
       </c>
       <c r="CO3" t="n">
-        <v>298.9796447753906</v>
+        <v>192.3033294677734</v>
       </c>
       <c r="CP3" t="n">
-        <v>299.6361999511719</v>
+        <v>196.0605621337891</v>
       </c>
       <c r="CQ3" t="n">
-        <v>298.4710083007812</v>
+        <v>210.5035400390625</v>
       </c>
       <c r="CR3" t="n">
-        <v>298.2623291015625</v>
+        <v>230.2783660888672</v>
       </c>
       <c r="CS3" t="n">
-        <v>298.7315368652344</v>
+        <v>303.3830261230469</v>
       </c>
       <c r="CT3" t="n">
-        <v>298.8083190917969</v>
+        <v>351.5835571289062</v>
       </c>
       <c r="CU3" t="n">
-        <v>296.6708374023438</v>
+        <v>375.3497619628906</v>
       </c>
       <c r="CV3" t="n">
-        <v>294.1751098632812</v>
+        <v>388.538330078125</v>
       </c>
       <c r="CW3" t="n">
-        <v>297.4374389648438</v>
+        <v>391.9839477539062</v>
       </c>
       <c r="CX3" t="n">
-        <v>293.00634765625</v>
+        <v>398.8810119628906</v>
       </c>
       <c r="CY3" t="n">
-        <v>291.2362670898438</v>
+        <v>399.5802917480469</v>
       </c>
       <c r="CZ3" t="n">
-        <v>298.3934631347656</v>
+        <v>394.2732238769531</v>
       </c>
       <c r="DA3" t="n">
-        <v>297.3414916992188</v>
+        <v>391.8707275390625</v>
       </c>
       <c r="DB3" t="n">
-        <v>299.0828552246094</v>
+        <v>388.4932250976562</v>
       </c>
       <c r="DC3" t="n">
-        <v>296.3767395019531</v>
+        <v>387.4068908691406</v>
       </c>
       <c r="DD3" t="n">
-        <v>295.1770324707031</v>
+        <v>384.724609375</v>
       </c>
       <c r="DE3" t="n">
-        <v>294.8302917480469</v>
+        <v>383.7635192871094</v>
       </c>
       <c r="DF3" t="n">
-        <v>290.2835998535156</v>
+        <v>385.9129028320312</v>
       </c>
       <c r="DG3" t="n">
-        <v>294.3109130859375</v>
+        <v>386.322265625</v>
       </c>
       <c r="DH3" t="n">
-        <v>296.0931701660156</v>
+        <v>384.4200744628906</v>
       </c>
       <c r="DI3" t="n">
-        <v>299.6326599121094</v>
+        <v>381.8329772949219</v>
       </c>
       <c r="DJ3" t="n">
-        <v>295.3411865234375</v>
+        <v>379.1274108886719</v>
       </c>
       <c r="DK3" t="n">
-        <v>296.946044921875</v>
+        <v>379.6841735839844</v>
       </c>
       <c r="DL3" t="n">
-        <v>296.7336120605469</v>
+        <v>379.7469482421875</v>
       </c>
       <c r="DM3" t="n">
-        <v>296.3815002441406</v>
+        <v>379.5699157714844</v>
       </c>
       <c r="DN3" t="n">
-        <v>295.17236328125</v>
+        <v>378.0252075195312</v>
       </c>
       <c r="DO3" t="n">
-        <v>291.0865478515625</v>
+        <v>377.7020568847656</v>
       </c>
       <c r="DP3" t="n">
-        <v>298.9801635742188</v>
+        <v>376.6001586914062</v>
       </c>
       <c r="DQ3" t="n">
-        <v>301.3753356933594</v>
+        <v>375.7820129394531</v>
       </c>
       <c r="DR3" t="n">
-        <v>298.4612121582031</v>
+        <v>374.719970703125</v>
       </c>
       <c r="DS3" t="n">
-        <v>295.9722595214844</v>
+        <v>372.1329040527344</v>
       </c>
       <c r="DT3" t="n">
-        <v>296.8006591796875</v>
+        <v>369.2031860351562</v>
       </c>
       <c r="DU3" t="n">
-        <v>293.9945983886719</v>
+        <v>368.0332336425781</v>
       </c>
       <c r="DV3" t="n">
-        <v>294.6660766601562</v>
+        <v>367.4841613769531</v>
       </c>
       <c r="DW3" t="n">
-        <v>294.3162841796875</v>
+        <v>369.2134399414062</v>
       </c>
       <c r="DX3" t="n">
-        <v>295.1342468261719</v>
+        <v>371.5092468261719</v>
       </c>
       <c r="DY3" t="n">
-        <v>295.5203552246094</v>
+        <v>376.1950378417969</v>
       </c>
       <c r="DZ3" t="n">
-        <v>294.8973388671875</v>
+        <v>385.3967590332031</v>
       </c>
       <c r="EA3" t="n">
-        <v>295.94482421875</v>
+        <v>385.5435180664062</v>
       </c>
       <c r="EB3" t="n">
-        <v>296.4622192382812</v>
+        <v>389.4403991699219</v>
       </c>
       <c r="EC3" t="n">
-        <v>295.5538635253906</v>
+        <v>393.03173828125</v>
       </c>
       <c r="ED3" t="n">
-        <v>296.8009338378906</v>
+        <v>393.8777465820312</v>
       </c>
       <c r="EE3" t="n">
-        <v>296.0549621582031</v>
+        <v>391.7440490722656</v>
       </c>
       <c r="EF3" t="n">
-        <v>296.3492431640625</v>
+        <v>398.9515686035156</v>
       </c>
       <c r="EG3" t="n">
-        <v>299.4163818359375</v>
+        <v>400.180419921875</v>
       </c>
       <c r="EH3" t="n">
-        <v>300.0414428710938</v>
+        <v>400.5683288574219</v>
       </c>
       <c r="EI3" t="n">
-        <v>249.5643463134766</v>
+        <v>397.5994873046875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>244.721435546875</v>
+        <v>398.3110961914062</v>
       </c>
       <c r="EK3" t="n">
-        <v>245.7451934814453</v>
+        <v>397.3039245605469</v>
       </c>
       <c r="EL3" t="n">
-        <v>251.0056762695312</v>
+        <v>393.8666381835938</v>
       </c>
       <c r="EM3" t="n">
-        <v>245.9232025146484</v>
+        <v>388.6063232421875</v>
       </c>
       <c r="EN3" t="n">
-        <v>242.5628814697266</v>
+        <v>386.2185363769531</v>
       </c>
       <c r="EO3" t="n">
-        <v>243.2464904785156</v>
+        <v>382.4893493652344</v>
       </c>
       <c r="EP3" t="n">
-        <v>240.6171569824219</v>
+        <v>381.0828857421875</v>
       </c>
       <c r="EQ3" t="n">
-        <v>274.8204345703125</v>
+        <v>385.0873718261719</v>
       </c>
       <c r="ER3" t="n">
-        <v>271.2992553710938</v>
+        <v>384.4854736328125</v>
       </c>
       <c r="ES3" t="n">
-        <v>274.2571105957031</v>
+        <v>382.7384033203125</v>
       </c>
       <c r="ET3" t="n">
-        <v>277.1457214355469</v>
+        <v>388.9588623046875</v>
       </c>
       <c r="EU3" t="n">
-        <v>280.4376525878906</v>
+        <v>390.4602966308594</v>
       </c>
       <c r="EV3" t="n">
-        <v>276.215087890625</v>
+        <v>386.2167053222656</v>
       </c>
       <c r="EW3" t="n">
-        <v>275.9365234375</v>
+        <v>378.7123107910156</v>
       </c>
       <c r="EX3" t="n">
-        <v>286.3850402832031</v>
+        <v>376.1007080078125</v>
       </c>
       <c r="EY3" t="n">
-        <v>295.1549682617188</v>
+        <v>374.0026550292969</v>
       </c>
       <c r="EZ3" t="n">
-        <v>296.2535095214844</v>
+        <v>373.7610778808594</v>
       </c>
       <c r="FA3" t="n">
-        <v>294.0897827148438</v>
+        <v>374.9551696777344</v>
       </c>
       <c r="FB3" t="n">
-        <v>292.3336181640625</v>
+        <v>377.3298034667969</v>
       </c>
       <c r="FC3" t="n">
-        <v>296.9964599609375</v>
+        <v>376.862060546875</v>
       </c>
       <c r="FD3" t="n">
-        <v>296.4387512207031</v>
+        <v>377.3953247070312</v>
       </c>
       <c r="FE3" t="n">
-        <v>294.8821105957031</v>
+        <v>378.0816345214844</v>
       </c>
       <c r="FF3" t="n">
-        <v>295.080078125</v>
+        <v>373.927490234375</v>
       </c>
       <c r="FG3" t="n">
-        <v>294.9874572753906</v>
+        <v>365.6448669433594</v>
       </c>
       <c r="FH3" t="n">
-        <v>297.7592468261719</v>
+        <v>363.3780212402344</v>
       </c>
       <c r="FI3" t="n">
-        <v>297.9665832519531</v>
+        <v>355.5257263183594</v>
       </c>
       <c r="FJ3" t="n">
-        <v>300.5042724609375</v>
+        <v>352.2979736328125</v>
       </c>
       <c r="FK3" t="n">
-        <v>299.4849548339844</v>
+        <v>355.6812744140625</v>
       </c>
       <c r="FL3" t="n">
-        <v>297.8955078125</v>
+        <v>356.6056518554688</v>
       </c>
       <c r="FM3" t="n">
-        <v>300.2413635253906</v>
+        <v>344.794189453125</v>
       </c>
       <c r="FN3" t="n">
-        <v>294.6153869628906</v>
+        <v>353.5153198242188</v>
       </c>
       <c r="FO3" t="n">
-        <v>294.7289123535156</v>
+        <v>354.5669555664062</v>
       </c>
       <c r="FP3" t="n">
-        <v>303.5792846679688</v>
+        <v>357.5229797363281</v>
       </c>
       <c r="FQ3" t="n">
-        <v>307.5294799804688</v>
+        <v>366.9769897460938</v>
       </c>
       <c r="FR3" t="n">
-        <v>306.7258911132812</v>
+        <v>369.2877197265625</v>
       </c>
       <c r="FS3" t="n">
-        <v>295.6575622558594</v>
+        <v>373.2985534667969</v>
       </c>
       <c r="FT3" t="n">
-        <v>300.43310546875</v>
+        <v>373.1255798339844</v>
       </c>
       <c r="FU3" t="n">
-        <v>296.5230712890625</v>
+        <v>373.2780151367188</v>
       </c>
       <c r="FV3" t="n">
-        <v>299.884521484375</v>
+        <v>372.4798889160156</v>
       </c>
       <c r="FW3" t="n">
-        <v>296.8917236328125</v>
+        <v>370.9191284179688</v>
       </c>
       <c r="FX3" t="n">
-        <v>298.8311462402344</v>
+        <v>370.2847595214844</v>
       </c>
       <c r="FY3" t="n">
-        <v>298.3109130859375</v>
+        <v>368.7438049316406</v>
       </c>
       <c r="FZ3" t="n">
-        <v>300.0138244628906</v>
+        <v>365.50048828125</v>
       </c>
       <c r="GA3" t="n">
-        <v>300.1161499023438</v>
+        <v>362.8663635253906</v>
       </c>
       <c r="GB3" t="n">
-        <v>300.0887145996094</v>
+        <v>366.1814575195312</v>
       </c>
       <c r="GC3" t="n">
-        <v>270.7273559570312</v>
+        <v>366.6569213867188</v>
       </c>
       <c r="GD3" t="n">
-        <v>271.9016723632812</v>
+        <v>368.4968566894531</v>
       </c>
       <c r="GE3" t="n">
-        <v>273.1611022949219</v>
+        <v>368.6340026855469</v>
       </c>
       <c r="GF3" t="n">
-        <v>272.919189453125</v>
+        <v>368.7120666503906</v>
       </c>
       <c r="GG3" t="n">
-        <v>266.2012939453125</v>
+        <v>370.9629516601562</v>
       </c>
       <c r="GH3" t="n">
-        <v>266.7460327148438</v>
+        <v>371.6196899414062</v>
       </c>
       <c r="GI3" t="n">
-        <v>270.5966491699219</v>
+        <v>371.746337890625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>255.2305145263672</v>
+        <v>374.8320007324219</v>
       </c>
       <c r="GK3" t="n">
-        <v>247.4790802001953</v>
+        <v>371.958740234375</v>
       </c>
       <c r="GL3" t="n">
-        <v>223.7697448730469</v>
+        <v>368.2455749511719</v>
       </c>
       <c r="GM3" t="n">
-        <v>216.5744476318359</v>
+        <v>367.829345703125</v>
       </c>
       <c r="GN3" t="n">
-        <v>212.8039093017578</v>
+        <v>368.0167236328125</v>
       </c>
       <c r="GO3" t="n">
-        <v>209.6789398193359</v>
+        <v>367.597412109375</v>
       </c>
       <c r="GP3" t="n">
-        <v>208.5966491699219</v>
+        <v>368.8825378417969</v>
       </c>
       <c r="GQ3" t="n">
-        <v>210.1098327636719</v>
+        <v>366.35498046875</v>
       </c>
       <c r="GR3" t="n">
-        <v>210.3380279541016</v>
+        <v>366.13720703125</v>
       </c>
       <c r="GS3" t="n">
-        <v>208.9860992431641</v>
+        <v>363.1810302734375</v>
       </c>
       <c r="GT3" t="n">
-        <v>208.7938232421875</v>
+        <v>361.7898864746094</v>
       </c>
       <c r="GU3" t="n">
-        <v>206.1771697998047</v>
+        <v>354.6340942382812</v>
       </c>
       <c r="GV3" t="n">
-        <v>205.0143737792969</v>
+        <v>358.9637756347656</v>
       </c>
       <c r="GW3" t="n">
-        <v>202.9094390869141</v>
+        <v>361.0302429199219</v>
       </c>
       <c r="GX3" t="n">
-        <v>209.9088134765625</v>
+        <v>357.5196838378906</v>
       </c>
       <c r="GY3" t="n">
-        <v>211.0048828125</v>
+        <v>356.1326904296875</v>
       </c>
       <c r="GZ3" t="n">
-        <v>213.0648956298828</v>
+        <v>355.6456298828125</v>
       </c>
       <c r="HA3" t="n">
-        <v>227.7712707519531</v>
+        <v>355.450927734375</v>
       </c>
       <c r="HB3" t="n">
-        <v>276.9853515625</v>
+        <v>356.1708068847656</v>
       </c>
       <c r="HC3" t="n">
-        <v>277.4019470214844</v>
+        <v>350.5718383789062</v>
       </c>
       <c r="HD3" t="n">
-        <v>250.0934906005859</v>
+        <v>343.2886352539062</v>
       </c>
       <c r="HE3" t="n">
-        <v>250.5947723388672</v>
+        <v>346.638916015625</v>
       </c>
       <c r="HF3" t="n">
-        <v>249.3883666992188</v>
+        <v>347.9917907714844</v>
       </c>
       <c r="HG3" t="n">
-        <v>243.5196228027344</v>
+        <v>237.1792297363281</v>
       </c>
       <c r="HH3" t="n">
-        <v>212.7132415771484</v>
+        <v>353.7432861328125</v>
       </c>
       <c r="HI3" t="n">
-        <v>217.1831207275391</v>
+        <v>366.1685485839844</v>
       </c>
       <c r="HJ3" t="n">
-        <v>224.7263488769531</v>
+        <v>367.7289733886719</v>
       </c>
       <c r="HK3" t="n">
-        <v>224.4323120117188</v>
+        <v>358.4918212890625</v>
       </c>
       <c r="HL3" t="n">
-        <v>228.9548645019531</v>
+        <v>357.0518493652344</v>
       </c>
       <c r="HM3" t="n">
-        <v>226.826416015625</v>
+        <v>358.4747009277344</v>
       </c>
       <c r="HN3" t="n">
-        <v>230.8517150878906</v>
+        <v>366.5799560546875</v>
       </c>
       <c r="HO3" t="n">
-        <v>240.2745971679688</v>
+        <v>367.7677307128906</v>
       </c>
       <c r="HP3" t="n">
-        <v>253.1940002441406</v>
+        <v>369.3028259277344</v>
       </c>
       <c r="HQ3" t="n">
-        <v>255.1972045898438</v>
+        <v>368.3229064941406</v>
       </c>
       <c r="HR3" t="n">
-        <v>261.9293823242188</v>
+        <v>368.9808349609375</v>
       </c>
       <c r="HS3" t="n">
-        <v>264.3106689453125</v>
+        <v>368.5189514160156</v>
       </c>
       <c r="HT3" t="n">
-        <v>249.1728668212891</v>
+        <v>367.8558654785156</v>
       </c>
       <c r="HU3" t="n">
-        <v>238.4542388916016</v>
+        <v>368.5448303222656</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>366.3496398925781</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>367.844970703125</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>371.7590942382812</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>374.9171447753906</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>379.9508972167969</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>378.8726196289062</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>379.2437744140625</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>379.5707092285156</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>381.5843811035156</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>380.6248474121094</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>379.1961364746094</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>380.3900146484375</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>379.5303955078125</v>
+      </c>
+      <c r="II3" t="n">
+        <v>379.6889953613281</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>378.87158203125</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>378.2872619628906</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>376.4869689941406</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>375.957763671875</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>377.6006774902344</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>375.614013671875</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>374.9224243164062</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>372.5529174804688</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>368.2420959472656</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>367.5261535644531</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>363.4397888183594</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>363.8350524902344</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>372.7751770019531</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>372.2964477539062</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>359.359619140625</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>356.1006469726562</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>355.0892944335938</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>354.8406066894531</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>356.947509765625</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>361.5641479492188</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>361.9988098144531</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>360.7242736816406</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>359.3662414550781</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>365.1625366210938</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>370.0521240234375</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>366.6135559082031</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>368.0001220703125</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>366.5432739257812</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>359.0959777832031</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>366.7845153808594</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>367.4130859375</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>368.3006896972656</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>368.4938354492188</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>367.8638610839844</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>369.4602966308594</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>370.4854736328125</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>370.7014465332031</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>371.2182006835938</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>371.8196105957031</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>373.0488586425781</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>374.1519775390625</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>374.7181701660156</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>374.514404296875</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>371.1243591308594</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>361.1923828125</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>337.7579650878906</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>313.00830078125</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>259.7530517578125</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>246.3442687988281</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>233.5409240722656</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>226.7672576904297</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>228.2495269775391</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>243.7317810058594</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>254.9771423339844</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>268.1243896484375</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>283.4392395019531</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>302.0328979492188</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>317.7220458984375</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>343.8050231933594</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>364.716064453125</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>369.2706604003906</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>372.3450012207031</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>373.4988098144531</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>372.3868103027344</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>373.1782836914062</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>372.9838562011719</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>371.8753051757812</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>373.3579711914062</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>370.1910095214844</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>371.2736511230469</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>370.5895690917969</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>371.1300659179688</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>372.0973205566406</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>372.3319396972656</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>376.2372436523438</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>378.7911376953125</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>379.9122314453125</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>380.8206176757812</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>383.0254821777344</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>383.0802917480469</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>383.4624938964844</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>383.245361328125</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>383.18896484375</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>386.6681823730469</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>392.3944396972656</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>403.5753479003906</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>421.5095825195312</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>432.9989929199219</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>417.1601257324219</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>421.8692932128906</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>464.1109619140625</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>446.26904296875</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>485.0625305175781</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>499.3128662109375</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>488.2751159667969</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>484.580322265625</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>480.272705078125</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>479.9826049804688</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>466.3345947265625</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>453.1717529296875</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>446.7090148925781</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>467.0746459960938</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>485.5331115722656</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>492.1211242675781</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>503.6560668945312</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>489.2283935546875</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>461.7338562011719</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>355.9662475585938</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>383.1117248535156</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>407.0575256347656</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>530.6729125976562</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>532.0928344726562</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>350.1941528320312</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>259.2577514648438</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>771.9593505859375</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>329.658203125</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>334.97216796875</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>260.8117065429688</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>123.6306533813477</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>170.8256225585938</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>293.4601440429688</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>317.978271484375</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>411.3842468261719</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>622.8731689453125</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>889.5753784179688</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>916.4883422851562</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>722.4310302734375</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>726.2008056640625</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>663.6216430664062</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>572.9011840820312</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>502.7933654785156</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>470.8213195800781</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>556.1561889648438</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>530.4022216796875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>954.2735595703125</v>
+        <v>945.9761352539062</v>
       </c>
       <c r="B4" t="n">
-        <v>969.1890258789062</v>
+        <v>972.6957397460938</v>
       </c>
       <c r="C4" t="n">
-        <v>985.8704223632812</v>
+        <v>982.6022338867188</v>
       </c>
       <c r="D4" t="n">
-        <v>1010.965881347656</v>
+        <v>981.9757080078125</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.399963378906</v>
+        <v>972.7339477539062</v>
       </c>
       <c r="F4" t="n">
-        <v>1054.7529296875</v>
+        <v>982.7781372070312</v>
       </c>
       <c r="G4" t="n">
-        <v>1063.512573242188</v>
+        <v>976.2011108398438</v>
       </c>
       <c r="H4" t="n">
-        <v>1099.898315429688</v>
+        <v>979.2568969726562</v>
       </c>
       <c r="I4" t="n">
-        <v>1124.745361328125</v>
+        <v>981.0712890625</v>
       </c>
       <c r="J4" t="n">
-        <v>1164.328369140625</v>
+        <v>978.6748046875</v>
       </c>
       <c r="K4" t="n">
-        <v>1178.4052734375</v>
+        <v>973.3441162109375</v>
       </c>
       <c r="L4" t="n">
-        <v>1224.52001953125</v>
+        <v>967.8131103515625</v>
       </c>
       <c r="M4" t="n">
-        <v>1236.489868164062</v>
+        <v>961.2115478515625</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.8525390625</v>
+        <v>965.0853271484375</v>
       </c>
       <c r="O4" t="n">
-        <v>1333.629638671875</v>
+        <v>996.829833984375</v>
       </c>
       <c r="P4" t="n">
-        <v>1367.5087890625</v>
+        <v>1013.980590820312</v>
       </c>
       <c r="Q4" t="n">
-        <v>1407.606201171875</v>
+        <v>1032.222412109375</v>
       </c>
       <c r="R4" t="n">
-        <v>1443.559814453125</v>
+        <v>1052.720336914062</v>
       </c>
       <c r="S4" t="n">
-        <v>1339.6953125</v>
+        <v>1071.923217773438</v>
       </c>
       <c r="T4" t="n">
-        <v>1362.849243164062</v>
+        <v>1096.502685546875</v>
       </c>
       <c r="U4" t="n">
-        <v>1403.22314453125</v>
+        <v>1104.131469726562</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.078002929688</v>
+        <v>1087.409057617188</v>
       </c>
       <c r="W4" t="n">
-        <v>1486.832885742188</v>
+        <v>1068.39794921875</v>
       </c>
       <c r="X4" t="n">
-        <v>1491.349487304688</v>
+        <v>1055.30908203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1524.454711914062</v>
+        <v>1039.54931640625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1566.942626953125</v>
+        <v>1039.902587890625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1604.532104492188</v>
+        <v>1045.767944335938</v>
       </c>
       <c r="AB4" t="n">
-        <v>1645.466552734375</v>
+        <v>1065.721069335938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1736.6025390625</v>
+        <v>1083.5673828125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1782.392333984375</v>
+        <v>1107.847412109375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1833.737426757812</v>
+        <v>1135.191284179688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1878.49560546875</v>
+        <v>1162.630493164062</v>
       </c>
       <c r="AG4" t="n">
-        <v>1895.1474609375</v>
+        <v>1183.928466796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1927.148315429688</v>
+        <v>1217.938842773438</v>
       </c>
       <c r="AI4" t="n">
-        <v>1949.262939453125</v>
+        <v>1240.71533203125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1965.243774414062</v>
+        <v>1246.799194335938</v>
       </c>
       <c r="AK4" t="n">
-        <v>1974.993408203125</v>
+        <v>1257.278198242188</v>
       </c>
       <c r="AL4" t="n">
-        <v>1994.073974609375</v>
+        <v>1270.091430664062</v>
       </c>
       <c r="AM4" t="n">
-        <v>2005.863525390625</v>
+        <v>1267.239990234375</v>
       </c>
       <c r="AN4" t="n">
-        <v>2049.08837890625</v>
+        <v>1279.2958984375</v>
       </c>
       <c r="AO4" t="n">
-        <v>2097.08349609375</v>
+        <v>1301.94091796875</v>
       </c>
       <c r="AP4" t="n">
-        <v>2133.186767578125</v>
+        <v>1310.842163085938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2167.1806640625</v>
+        <v>1324.331665039062</v>
       </c>
       <c r="AR4" t="n">
-        <v>2216.281005859375</v>
+        <v>1338.19677734375</v>
       </c>
       <c r="AS4" t="n">
-        <v>2238.920654296875</v>
+        <v>1344.438354492188</v>
       </c>
       <c r="AT4" t="n">
-        <v>2273.54541015625</v>
+        <v>1341.904907226562</v>
       </c>
       <c r="AU4" t="n">
-        <v>2295.60498046875</v>
+        <v>1333.908325195312</v>
       </c>
       <c r="AV4" t="n">
-        <v>2360.20654296875</v>
+        <v>1296.1708984375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2401.664794921875</v>
+        <v>1253.82373046875</v>
       </c>
       <c r="AX4" t="n">
-        <v>2471.14794921875</v>
+        <v>1218.026977539062</v>
       </c>
       <c r="AY4" t="n">
-        <v>2524.779052734375</v>
+        <v>1190.739379882812</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2578.816162109375</v>
+        <v>1143.941650390625</v>
       </c>
       <c r="BA4" t="n">
-        <v>2623.958984375</v>
+        <v>1104.862670898438</v>
       </c>
       <c r="BB4" t="n">
-        <v>2664.28955078125</v>
+        <v>1078.477783203125</v>
       </c>
       <c r="BC4" t="n">
-        <v>2701.18994140625</v>
+        <v>1066.935791015625</v>
       </c>
       <c r="BD4" t="n">
-        <v>2725.399169921875</v>
+        <v>1058.829345703125</v>
       </c>
       <c r="BE4" t="n">
-        <v>2767.9521484375</v>
+        <v>1051.686279296875</v>
       </c>
       <c r="BF4" t="n">
-        <v>2798.72412109375</v>
+        <v>1040.59033203125</v>
       </c>
       <c r="BG4" t="n">
-        <v>2822.861328125</v>
+        <v>1043.653198242188</v>
       </c>
       <c r="BH4" t="n">
-        <v>2839.801513671875</v>
+        <v>1046.223022460938</v>
       </c>
       <c r="BI4" t="n">
-        <v>2877.916259765625</v>
+        <v>1038.895385742188</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2949.102294921875</v>
+        <v>1032.36181640625</v>
       </c>
       <c r="BK4" t="n">
-        <v>2981.489501953125</v>
+        <v>1035.228759765625</v>
       </c>
       <c r="BL4" t="n">
-        <v>3018.775634765625</v>
+        <v>1042.337524414062</v>
       </c>
       <c r="BM4" t="n">
-        <v>3034.207763671875</v>
+        <v>1053.181762695312</v>
       </c>
       <c r="BN4" t="n">
-        <v>3056.284423828125</v>
+        <v>1055.5458984375</v>
       </c>
       <c r="BO4" t="n">
-        <v>3073.4609375</v>
+        <v>1046.412963867188</v>
       </c>
       <c r="BP4" t="n">
-        <v>3108.1904296875</v>
+        <v>1040.623413085938</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3083.82421875</v>
+        <v>1039.077026367188</v>
       </c>
       <c r="BR4" t="n">
-        <v>3119.462646484375</v>
+        <v>1038.9404296875</v>
       </c>
       <c r="BS4" t="n">
-        <v>3100.3837890625</v>
+        <v>1036.706420898438</v>
       </c>
       <c r="BT4" t="n">
-        <v>3100.964599609375</v>
+        <v>1038.560424804688</v>
       </c>
       <c r="BU4" t="n">
-        <v>3127.085693359375</v>
+        <v>1040.018676757812</v>
       </c>
       <c r="BV4" t="n">
-        <v>3142.694580078125</v>
+        <v>1041.21923828125</v>
       </c>
       <c r="BW4" t="n">
-        <v>3155.636962890625</v>
+        <v>1041.328491210938</v>
       </c>
       <c r="BX4" t="n">
-        <v>3152.6376953125</v>
+        <v>1041.665771484375</v>
       </c>
       <c r="BY4" t="n">
-        <v>3127.125244140625</v>
+        <v>1041.552368164062</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3139.4296875</v>
+        <v>1039.228637695312</v>
       </c>
       <c r="CA4" t="n">
-        <v>3156.09765625</v>
+        <v>1036.094848632812</v>
       </c>
       <c r="CB4" t="n">
-        <v>3237.38525390625</v>
+        <v>1033.388061523438</v>
       </c>
       <c r="CC4" t="n">
-        <v>3293.11962890625</v>
+        <v>1030.669677734375</v>
       </c>
       <c r="CD4" t="n">
-        <v>3319.965087890625</v>
+        <v>1034.672241210938</v>
       </c>
       <c r="CE4" t="n">
-        <v>3371.7529296875</v>
+        <v>1033.217163085938</v>
       </c>
       <c r="CF4" t="n">
-        <v>3378.583251953125</v>
+        <v>1026.699829101562</v>
       </c>
       <c r="CG4" t="n">
-        <v>3401.43115234375</v>
+        <v>1023.3662109375</v>
       </c>
       <c r="CH4" t="n">
-        <v>3407.755859375</v>
+        <v>1018.991821289062</v>
       </c>
       <c r="CI4" t="n">
-        <v>3471.52734375</v>
+        <v>1018.685913085938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3396.19189453125</v>
+        <v>1014.785766601562</v>
       </c>
       <c r="CK4" t="n">
-        <v>3449.591064453125</v>
+        <v>1014.281494140625</v>
       </c>
       <c r="CL4" t="n">
-        <v>3504.580322265625</v>
+        <v>1007.349243164062</v>
       </c>
       <c r="CM4" t="n">
-        <v>3511.28076171875</v>
+        <v>998.3687133789062</v>
       </c>
       <c r="CN4" t="n">
-        <v>3455.649658203125</v>
+        <v>993.8963012695312</v>
       </c>
       <c r="CO4" t="n">
-        <v>3637.701904296875</v>
+        <v>982.4442138671875</v>
       </c>
       <c r="CP4" t="n">
-        <v>3640.732177734375</v>
+        <v>950.9139404296875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3671.3310546875</v>
+        <v>925.1815185546875</v>
       </c>
       <c r="CR4" t="n">
-        <v>3675.56201171875</v>
+        <v>912.1522216796875</v>
       </c>
       <c r="CS4" t="n">
-        <v>3682.769287109375</v>
+        <v>892.9336547851562</v>
       </c>
       <c r="CT4" t="n">
-        <v>3713.80908203125</v>
+        <v>885.0328979492188</v>
       </c>
       <c r="CU4" t="n">
-        <v>3759.731689453125</v>
+        <v>901.107666015625</v>
       </c>
       <c r="CV4" t="n">
-        <v>3795.861328125</v>
+        <v>912.1356201171875</v>
       </c>
       <c r="CW4" t="n">
-        <v>3767.96630859375</v>
+        <v>934.06787109375</v>
       </c>
       <c r="CX4" t="n">
-        <v>3788.073974609375</v>
+        <v>988.1516723632812</v>
       </c>
       <c r="CY4" t="n">
-        <v>3807.329345703125</v>
+        <v>1004.380126953125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3719.103759765625</v>
+        <v>1046.242065429688</v>
       </c>
       <c r="DA4" t="n">
-        <v>3690.65478515625</v>
+        <v>1066.503295898438</v>
       </c>
       <c r="DB4" t="n">
-        <v>3680.5185546875</v>
+        <v>1082.66259765625</v>
       </c>
       <c r="DC4" t="n">
-        <v>3723.16552734375</v>
+        <v>1092.47998046875</v>
       </c>
       <c r="DD4" t="n">
-        <v>3757.925537109375</v>
+        <v>1111.156982421875</v>
       </c>
       <c r="DE4" t="n">
-        <v>3744.18603515625</v>
+        <v>1121.857299804688</v>
       </c>
       <c r="DF4" t="n">
-        <v>3586.942626953125</v>
+        <v>1119.402709960938</v>
       </c>
       <c r="DG4" t="n">
-        <v>3593.0361328125</v>
+        <v>1114.76513671875</v>
       </c>
       <c r="DH4" t="n">
-        <v>3604.568115234375</v>
+        <v>1086.22607421875</v>
       </c>
       <c r="DI4" t="n">
-        <v>3615.795654296875</v>
+        <v>1079.11376953125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3738.09912109375</v>
+        <v>1071.534912109375</v>
       </c>
       <c r="DK4" t="n">
-        <v>3593.857666015625</v>
+        <v>1069.203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>3666.29638671875</v>
+        <v>1069.607788085938</v>
       </c>
       <c r="DM4" t="n">
-        <v>3656.252685546875</v>
+        <v>1073.633056640625</v>
       </c>
       <c r="DN4" t="n">
-        <v>3569.9921875</v>
+        <v>1073.001098632812</v>
       </c>
       <c r="DO4" t="n">
-        <v>3766.504150390625</v>
+        <v>1067.140625</v>
       </c>
       <c r="DP4" t="n">
-        <v>3522.669677734375</v>
+        <v>1060.877075195312</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3580.9765625</v>
+        <v>1050.110961914062</v>
       </c>
       <c r="DR4" t="n">
-        <v>3650.48681640625</v>
+        <v>1044.954833984375</v>
       </c>
       <c r="DS4" t="n">
-        <v>3652.22314453125</v>
+        <v>1043.44775390625</v>
       </c>
       <c r="DT4" t="n">
-        <v>3575.105224609375</v>
+        <v>1031.6728515625</v>
       </c>
       <c r="DU4" t="n">
-        <v>3611.77587890625</v>
+        <v>1018.635314941406</v>
       </c>
       <c r="DV4" t="n">
-        <v>3473.64404296875</v>
+        <v>1018.471069335938</v>
       </c>
       <c r="DW4" t="n">
-        <v>3612.3642578125</v>
+        <v>1016.468017578125</v>
       </c>
       <c r="DX4" t="n">
-        <v>3591.871337890625</v>
+        <v>1017.193725585938</v>
       </c>
       <c r="DY4" t="n">
-        <v>3567.74609375</v>
+        <v>1022.287414550781</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3582.298828125</v>
+        <v>1038.962280273438</v>
       </c>
       <c r="EA4" t="n">
-        <v>3578.726318359375</v>
+        <v>1044.150024414062</v>
       </c>
       <c r="EB4" t="n">
-        <v>3583.63623046875</v>
+        <v>1046.387329101562</v>
       </c>
       <c r="EC4" t="n">
-        <v>3612.195556640625</v>
+        <v>1043.883544921875</v>
       </c>
       <c r="ED4" t="n">
-        <v>3556.580078125</v>
+        <v>1046.927490234375</v>
       </c>
       <c r="EE4" t="n">
-        <v>3577.3564453125</v>
+        <v>1070.3603515625</v>
       </c>
       <c r="EF4" t="n">
-        <v>3531.02490234375</v>
+        <v>1080.388061523438</v>
       </c>
       <c r="EG4" t="n">
-        <v>3501.8017578125</v>
+        <v>1106.417724609375</v>
       </c>
       <c r="EH4" t="n">
-        <v>3486.0439453125</v>
+        <v>1128.130981445312</v>
       </c>
       <c r="EI4" t="n">
-        <v>3265.089111328125</v>
+        <v>1151.880737304688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3250.029541015625</v>
+        <v>1165.9111328125</v>
       </c>
       <c r="EK4" t="n">
-        <v>3218.685791015625</v>
+        <v>1189.677001953125</v>
       </c>
       <c r="EL4" t="n">
-        <v>3227.3896484375</v>
+        <v>1207.689208984375</v>
       </c>
       <c r="EM4" t="n">
-        <v>3244.78857421875</v>
+        <v>1234.67236328125</v>
       </c>
       <c r="EN4" t="n">
-        <v>3205.91845703125</v>
+        <v>1247.252319335938</v>
       </c>
       <c r="EO4" t="n">
-        <v>3150.286376953125</v>
+        <v>1266.424926757812</v>
       </c>
       <c r="EP4" t="n">
-        <v>3140.9365234375</v>
+        <v>1278.475463867188</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3114.56298828125</v>
+        <v>1317.679565429688</v>
       </c>
       <c r="ER4" t="n">
-        <v>3116.585205078125</v>
+        <v>1344.717651367188</v>
       </c>
       <c r="ES4" t="n">
-        <v>3118.189697265625</v>
+        <v>1393.293701171875</v>
       </c>
       <c r="ET4" t="n">
-        <v>3083.46630859375</v>
+        <v>1424.549072265625</v>
       </c>
       <c r="EU4" t="n">
-        <v>3107.468017578125</v>
+        <v>1440.84423828125</v>
       </c>
       <c r="EV4" t="n">
-        <v>3162.840576171875</v>
+        <v>1487.725830078125</v>
       </c>
       <c r="EW4" t="n">
-        <v>3157.734375</v>
+        <v>1580.486938476562</v>
       </c>
       <c r="EX4" t="n">
-        <v>3167.14697265625</v>
+        <v>1627.529418945312</v>
       </c>
       <c r="EY4" t="n">
-        <v>3230.491455078125</v>
+        <v>1661.75927734375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3289.648681640625</v>
+        <v>1671.630981445312</v>
       </c>
       <c r="FA4" t="n">
-        <v>3238.83447265625</v>
+        <v>1694.482543945312</v>
       </c>
       <c r="FB4" t="n">
-        <v>3301.96533203125</v>
+        <v>1699.87744140625</v>
       </c>
       <c r="FC4" t="n">
-        <v>3368.02294921875</v>
+        <v>1699.94970703125</v>
       </c>
       <c r="FD4" t="n">
-        <v>3326.041748046875</v>
+        <v>1715.876586914062</v>
       </c>
       <c r="FE4" t="n">
-        <v>3310.93310546875</v>
+        <v>1720.022705078125</v>
       </c>
       <c r="FF4" t="n">
-        <v>3515.224609375</v>
+        <v>1725.471557617188</v>
       </c>
       <c r="FG4" t="n">
-        <v>3530.48095703125</v>
+        <v>1730.91943359375</v>
       </c>
       <c r="FH4" t="n">
-        <v>3475.696044921875</v>
+        <v>1736.832397460938</v>
       </c>
       <c r="FI4" t="n">
-        <v>3406.478271484375</v>
+        <v>1744.616455078125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3434.005615234375</v>
+        <v>1747.084350585938</v>
       </c>
       <c r="FK4" t="n">
-        <v>3489.150634765625</v>
+        <v>1789.028442382812</v>
       </c>
       <c r="FL4" t="n">
-        <v>3532.8662109375</v>
+        <v>1820.325561523438</v>
       </c>
       <c r="FM4" t="n">
-        <v>3410.04638671875</v>
+        <v>1878.874145507812</v>
       </c>
       <c r="FN4" t="n">
-        <v>3293.810546875</v>
+        <v>1917.493530273438</v>
       </c>
       <c r="FO4" t="n">
-        <v>3277.64404296875</v>
+        <v>1943.083129882812</v>
       </c>
       <c r="FP4" t="n">
-        <v>3472.98974609375</v>
+        <v>2041.828002929688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3499.74072265625</v>
+        <v>2043.362426757812</v>
       </c>
       <c r="FR4" t="n">
-        <v>3422.205810546875</v>
+        <v>2086.611572265625</v>
       </c>
       <c r="FS4" t="n">
-        <v>3328.0712890625</v>
+        <v>2128.46142578125</v>
       </c>
       <c r="FT4" t="n">
-        <v>3473.6748046875</v>
+        <v>2143.992919921875</v>
       </c>
       <c r="FU4" t="n">
-        <v>3531.77294921875</v>
+        <v>2132.005615234375</v>
       </c>
       <c r="FV4" t="n">
-        <v>3497.101318359375</v>
+        <v>2125.75244140625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3493.65380859375</v>
+        <v>2103.130859375</v>
       </c>
       <c r="FX4" t="n">
-        <v>3465.07421875</v>
+        <v>2103.758544921875</v>
       </c>
       <c r="FY4" t="n">
-        <v>3446.2373046875</v>
+        <v>2098.144775390625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3428.6171875</v>
+        <v>2095.3818359375</v>
       </c>
       <c r="GA4" t="n">
-        <v>3381.614501953125</v>
+        <v>2092.827880859375</v>
       </c>
       <c r="GB4" t="n">
-        <v>3328.41845703125</v>
+        <v>2086.591552734375</v>
       </c>
       <c r="GC4" t="n">
-        <v>3010.1826171875</v>
+        <v>2091.818603515625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3025.194580078125</v>
+        <v>2102.72021484375</v>
       </c>
       <c r="GE4" t="n">
-        <v>2938.657958984375</v>
+        <v>2105.385009765625</v>
       </c>
       <c r="GF4" t="n">
-        <v>2935.12890625</v>
+        <v>2106.11572265625</v>
       </c>
       <c r="GG4" t="n">
-        <v>2911.85205078125</v>
+        <v>2103.394775390625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2879.647705078125</v>
+        <v>2125.269287109375</v>
       </c>
       <c r="GI4" t="n">
-        <v>2789.000244140625</v>
+        <v>2137.03662109375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2722.23388671875</v>
+        <v>2137.98828125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2719.669921875</v>
+        <v>2146.959228515625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2657.37744140625</v>
+        <v>2155.7099609375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2699.73779296875</v>
+        <v>2158.299072265625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2676.200439453125</v>
+        <v>2159.61572265625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2635.936279296875</v>
+        <v>2159.390625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2558.16796875</v>
+        <v>2157.528076171875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2559.89794921875</v>
+        <v>2166.868896484375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2515.189453125</v>
+        <v>2167.177001953125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2408.75732421875</v>
+        <v>2169.511962890625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2383.843505859375</v>
+        <v>2165.47802734375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2323.966552734375</v>
+        <v>2156.481689453125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2275.365478515625</v>
+        <v>2144.032470703125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2206.731689453125</v>
+        <v>2157.983642578125</v>
       </c>
       <c r="GX4" t="n">
-        <v>2127.38671875</v>
+        <v>2144.348388671875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2077.93505859375</v>
+        <v>2116.86669921875</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1897.154541015625</v>
+        <v>2124.085693359375</v>
       </c>
       <c r="HA4" t="n">
-        <v>1793.288696289062</v>
+        <v>2133.80126953125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1654.953857421875</v>
+        <v>2141.031982421875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1634.771240234375</v>
+        <v>2143.701904296875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1612.00439453125</v>
+        <v>2139.193115234375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1596.519165039062</v>
+        <v>2150.1728515625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1465.486206054688</v>
+        <v>2181.07080078125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1415.492797851562</v>
+        <v>2332.908447265625</v>
       </c>
       <c r="HH4" t="n">
-        <v>1354.75927734375</v>
+        <v>2513.7138671875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1287.670654296875</v>
+        <v>2381.4248046875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1206.884887695312</v>
+        <v>2358.708251953125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1098.396850585938</v>
+        <v>2126.295166015625</v>
       </c>
       <c r="HL4" t="n">
-        <v>1031.774169921875</v>
+        <v>2086.997802734375</v>
       </c>
       <c r="HM4" t="n">
-        <v>938.5542602539062</v>
+        <v>2064.077880859375</v>
       </c>
       <c r="HN4" t="n">
-        <v>800.4810180664062</v>
+        <v>2018.83203125</v>
       </c>
       <c r="HO4" t="n">
-        <v>712.0253295898438</v>
+        <v>2006.963256835938</v>
       </c>
       <c r="HP4" t="n">
-        <v>638.6178588867188</v>
+        <v>2005.94140625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>536.4423828125</v>
+        <v>1971.114135742188</v>
       </c>
       <c r="HR4" t="n">
-        <v>452.1294860839844</v>
+        <v>1966.577270507812</v>
       </c>
       <c r="HS4" t="n">
-        <v>394.2171325683594</v>
+        <v>1975.568237304688</v>
       </c>
       <c r="HT4" t="n">
-        <v>377.2773132324219</v>
+        <v>1974.3759765625</v>
       </c>
       <c r="HU4" t="n">
-        <v>363.3689575195312</v>
+        <v>1974.506225585938</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1975.953247070312</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1973.846313476562</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1998.024047851562</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2021.687377929688</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2054.87744140625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2040.8447265625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2041.027709960938</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2041.854370117188</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2038.773071289062</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2038.780151367188</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2017.234741210938</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1999.619506835938</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2006.7314453125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2005.887084960938</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2016.7373046875</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2020.032470703125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2031.731567382812</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2033.767822265625</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2039.519897460938</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2106.9091796875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2081.5625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2118.27294921875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2126.98095703125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2118.255615234375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2061.164794921875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2038.947021484375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1994.309448242188</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1999.5341796875</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2026.067504882812</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2018.778442382812</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2023.88427734375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2021.8876953125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2009.57421875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1992.826171875</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1993.638671875</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1997.383544921875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2002.64599609375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1986.266235351562</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1978.33740234375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1997.7978515625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1983.935791015625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1976.050537109375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1975.720336914062</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1975.234375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1975.384033203125</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1979.889282226562</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1980.381591796875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1973.14794921875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1969.613891601562</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1972.681030273438</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1972.354125976562</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1971.050903320312</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1969.038208007812</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1964.479614257812</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1959.572265625</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1954.221557617188</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1944.782104492188</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1916.517822265625</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1872.43310546875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1847.3349609375</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1956.588500976562</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1862.412963867188</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1945.96435546875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1956.890014648438</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1968.363525390625</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1970.690185546875</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1927.6611328125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1903.0146484375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1929.03271484375</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1919.96630859375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1910.0576171875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1890.301513671875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1931.24560546875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1969.483764648438</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1984.04638671875</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2032.726318359375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2035.772705078125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2032.597900390625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2028.7080078125</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2029.042724609375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2020.51904296875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2003.578735351562</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1966.952392578125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>1962.746826171875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>1965.790649414062</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>1965.859252929688</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>1968.427734375</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1986.1142578125</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2010.482543945312</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2004.321411132812</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1972.75537109375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1902.216552734375</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1781.687133789062</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1634.13916015625</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1548.45947265625</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1442.476806640625</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1322.156494140625</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1260.547973632812</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1167.272583007812</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1065.654418945312</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>986.6541748046875</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>912.5274658203125</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>797.2384033203125</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>731.8070068359375</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>645.255615234375</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>595.6128540039062</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>543.1431884765625</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>521.4588623046875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>524.9976806640625</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>581.2177734375</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>626.480224609375</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>659.1777954101562</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>690.9827270507812</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>704.4869384765625</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>708.5057373046875</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>708.8076171875</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>716.8846435546875</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>729.666015625</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>753.3930053710938</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>765.438232421875</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>768.6717529296875</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>704.4132690429688</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>705.3017578125</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>730.6300048828125</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>700.2945556640625</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>621.935546875</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>612.08642578125</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>784.2186889648438</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>586.6493530273438</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>736.8356323242188</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>1244.478515625</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>910.9199829101562</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>391.5451965332031</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>289.8233032226562</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>264.6737060546875</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>259.3798828125</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>224.9093322753906</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>188.6764068603516</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>129.6026306152344</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>125.905387878418</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>173.1487884521484</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>171.8537902832031</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>186.7737884521484</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>213.5377960205078</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>195.3307189941406</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>236.9365539550781</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>149.9590911865234</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>187.5306854248047</v>
       </c>
     </row>
   </sheetData>

--- a/left_hand_Data_Variable.xlsx
+++ b/left_hand_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>451.4717102050781</v>
+        <v>419.32421875</v>
       </c>
       <c r="B2" t="n">
-        <v>465.0512084960938</v>
+        <v>417.090087890625</v>
       </c>
       <c r="C2" t="n">
-        <v>478.9609069824219</v>
+        <v>411.5372009277344</v>
       </c>
       <c r="D2" t="n">
-        <v>485.3448486328125</v>
+        <v>406.3616333007812</v>
       </c>
       <c r="E2" t="n">
-        <v>500.9111938476562</v>
+        <v>410.64404296875</v>
       </c>
       <c r="F2" t="n">
-        <v>512.1787109375</v>
+        <v>419.4871826171875</v>
       </c>
       <c r="G2" t="n">
-        <v>520.790771484375</v>
+        <v>420.1929321289062</v>
       </c>
       <c r="H2" t="n">
-        <v>531.959716796875</v>
+        <v>425.711181640625</v>
       </c>
       <c r="I2" t="n">
-        <v>548.9972534179688</v>
+        <v>429.6868591308594</v>
       </c>
       <c r="J2" t="n">
-        <v>563.809326171875</v>
+        <v>432.0665283203125</v>
       </c>
       <c r="K2" t="n">
-        <v>578.9849853515625</v>
+        <v>434.4495849609375</v>
       </c>
       <c r="L2" t="n">
-        <v>590.7432861328125</v>
+        <v>437.4628295898438</v>
       </c>
       <c r="M2" t="n">
-        <v>560.4306640625</v>
+        <v>440.1873474121094</v>
       </c>
       <c r="N2" t="n">
-        <v>556.331787109375</v>
+        <v>444.9267883300781</v>
       </c>
       <c r="O2" t="n">
-        <v>543.8869018554688</v>
+        <v>453.3598327636719</v>
       </c>
       <c r="P2" t="n">
-        <v>541.0526123046875</v>
+        <v>453.839599609375</v>
       </c>
       <c r="Q2" t="n">
-        <v>540.05322265625</v>
+        <v>452.9327697753906</v>
       </c>
       <c r="R2" t="n">
-        <v>539.1832885742188</v>
+        <v>452.07470703125</v>
       </c>
       <c r="S2" t="n">
-        <v>535.243408203125</v>
+        <v>451.2864685058594</v>
       </c>
       <c r="T2" t="n">
-        <v>527.6844482421875</v>
+        <v>449.1777954101562</v>
       </c>
       <c r="U2" t="n">
-        <v>529.1109619140625</v>
+        <v>446.23046875</v>
       </c>
       <c r="V2" t="n">
-        <v>535.6255493164062</v>
+        <v>445.3568115234375</v>
       </c>
       <c r="W2" t="n">
-        <v>542.0098266601562</v>
+        <v>443.1293334960938</v>
       </c>
       <c r="X2" t="n">
-        <v>532.6878051757812</v>
+        <v>437.0501098632812</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.032958984375</v>
+        <v>429.8638916015625</v>
       </c>
       <c r="Z2" t="n">
-        <v>489.915283203125</v>
+        <v>422.9959716796875</v>
       </c>
       <c r="AA2" t="n">
-        <v>481.6713256835938</v>
+        <v>421.0329895019531</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.8331909179688</v>
+        <v>418.72509765625</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.8582763671875</v>
+        <v>415.7791442871094</v>
       </c>
       <c r="AD2" t="n">
-        <v>479.037841796875</v>
+        <v>413.7672424316406</v>
       </c>
       <c r="AE2" t="n">
-        <v>482.5043334960938</v>
+        <v>411.0111694335938</v>
       </c>
       <c r="AF2" t="n">
-        <v>479.3285522460938</v>
+        <v>408.9722290039062</v>
       </c>
       <c r="AG2" t="n">
-        <v>478.2185668945312</v>
+        <v>407.2877502441406</v>
       </c>
       <c r="AH2" t="n">
-        <v>477.669921875</v>
+        <v>405.4891357421875</v>
       </c>
       <c r="AI2" t="n">
-        <v>479.8744201660156</v>
+        <v>404.8417358398438</v>
       </c>
       <c r="AJ2" t="n">
-        <v>483.2470397949219</v>
+        <v>404.3823852539062</v>
       </c>
       <c r="AK2" t="n">
-        <v>481.1884155273438</v>
+        <v>403.9686279296875</v>
       </c>
       <c r="AL2" t="n">
-        <v>479.4134521484375</v>
+        <v>404.582275390625</v>
       </c>
       <c r="AM2" t="n">
-        <v>480.6947326660156</v>
+        <v>405.203857421875</v>
       </c>
       <c r="AN2" t="n">
-        <v>479.8274536132812</v>
+        <v>405.934326171875</v>
       </c>
       <c r="AO2" t="n">
-        <v>478.3098754882812</v>
+        <v>406.5233764648438</v>
       </c>
       <c r="AP2" t="n">
-        <v>478.1415405273438</v>
+        <v>406.8086242675781</v>
       </c>
       <c r="AQ2" t="n">
-        <v>478.4298095703125</v>
+        <v>405.6328735351562</v>
       </c>
       <c r="AR2" t="n">
-        <v>482.2811889648438</v>
+        <v>405.27734375</v>
       </c>
       <c r="AS2" t="n">
-        <v>487.1428833007812</v>
+        <v>405.1094055175781</v>
       </c>
       <c r="AT2" t="n">
-        <v>489.06103515625</v>
+        <v>404.9380798339844</v>
       </c>
       <c r="AU2" t="n">
-        <v>490.4406127929688</v>
+        <v>404.857666015625</v>
       </c>
       <c r="AV2" t="n">
-        <v>495.2162170410156</v>
+        <v>405.39404296875</v>
       </c>
       <c r="AW2" t="n">
-        <v>501.121826171875</v>
+        <v>407.3023071289062</v>
       </c>
       <c r="AX2" t="n">
-        <v>505.7777709960938</v>
+        <v>409.4720153808594</v>
       </c>
       <c r="AY2" t="n">
-        <v>511.1222534179688</v>
+        <v>418.7163696289062</v>
       </c>
       <c r="AZ2" t="n">
-        <v>520.1425170898438</v>
+        <v>438.3801574707031</v>
       </c>
       <c r="BA2" t="n">
-        <v>548.6837768554688</v>
+        <v>455.8076782226562</v>
       </c>
       <c r="BB2" t="n">
-        <v>575.4647216796875</v>
+        <v>467.2427062988281</v>
       </c>
       <c r="BC2" t="n">
-        <v>596.8486328125</v>
+        <v>479.6672973632812</v>
       </c>
       <c r="BD2" t="n">
-        <v>609.77294921875</v>
+        <v>488.8430786132812</v>
       </c>
       <c r="BE2" t="n">
-        <v>619.3041381835938</v>
+        <v>492.72802734375</v>
       </c>
       <c r="BF2" t="n">
-        <v>623.922607421875</v>
+        <v>495.033935546875</v>
       </c>
       <c r="BG2" t="n">
-        <v>625.5423583984375</v>
+        <v>494.5009155273438</v>
       </c>
       <c r="BH2" t="n">
-        <v>627.8756103515625</v>
+        <v>493.0712585449219</v>
       </c>
       <c r="BI2" t="n">
-        <v>626.07763671875</v>
+        <v>489.6681518554688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>624.9945068359375</v>
+        <v>486.4105834960938</v>
       </c>
       <c r="BK2" t="n">
-        <v>621.4185791015625</v>
+        <v>485.5322875976562</v>
       </c>
       <c r="BL2" t="n">
-        <v>617.0285034179688</v>
+        <v>486.1947326660156</v>
       </c>
       <c r="BM2" t="n">
-        <v>608.8851928710938</v>
+        <v>485.893310546875</v>
       </c>
       <c r="BN2" t="n">
-        <v>603.697509765625</v>
+        <v>485.8917236328125</v>
       </c>
       <c r="BO2" t="n">
-        <v>595.3394165039062</v>
+        <v>488.1569213867188</v>
       </c>
       <c r="BP2" t="n">
-        <v>591.9888305664062</v>
+        <v>491.0991821289062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>591.8607177734375</v>
+        <v>491.7623596191406</v>
       </c>
       <c r="BR2" t="n">
-        <v>591.0169677734375</v>
+        <v>491.6635131835938</v>
       </c>
       <c r="BS2" t="n">
-        <v>589.9649658203125</v>
+        <v>490.9129028320312</v>
       </c>
       <c r="BT2" t="n">
-        <v>589.6409912109375</v>
+        <v>491.2060241699219</v>
       </c>
       <c r="BU2" t="n">
-        <v>589.2832641601562</v>
+        <v>492.7764892578125</v>
       </c>
       <c r="BV2" t="n">
-        <v>588.8280029296875</v>
+        <v>493.8037719726562</v>
       </c>
       <c r="BW2" t="n">
-        <v>588.7635498046875</v>
+        <v>494.1116027832031</v>
       </c>
       <c r="BX2" t="n">
-        <v>588.6758422851562</v>
+        <v>494.5048828125</v>
       </c>
       <c r="BY2" t="n">
-        <v>589.2754516601562</v>
+        <v>496.3776245117188</v>
       </c>
       <c r="BZ2" t="n">
-        <v>590.5949096679688</v>
+        <v>496.1930847167969</v>
       </c>
       <c r="CA2" t="n">
-        <v>592.5465698242188</v>
+        <v>496.6527709960938</v>
       </c>
       <c r="CB2" t="n">
-        <v>594.70703125</v>
+        <v>496.6174621582031</v>
       </c>
       <c r="CC2" t="n">
-        <v>599.226318359375</v>
+        <v>497.55615234375</v>
       </c>
       <c r="CD2" t="n">
-        <v>605.2423095703125</v>
+        <v>498.7424926757812</v>
       </c>
       <c r="CE2" t="n">
-        <v>616.6802368164062</v>
+        <v>498.9756774902344</v>
       </c>
       <c r="CF2" t="n">
-        <v>620.3763427734375</v>
+        <v>498.8216552734375</v>
       </c>
       <c r="CG2" t="n">
-        <v>623.7109375</v>
+        <v>498.9088745117188</v>
       </c>
       <c r="CH2" t="n">
-        <v>628.8984985351562</v>
+        <v>498.6968383789062</v>
       </c>
       <c r="CI2" t="n">
-        <v>634.732177734375</v>
+        <v>498.794921875</v>
       </c>
       <c r="CJ2" t="n">
-        <v>641.2452392578125</v>
+        <v>499.2030639648438</v>
       </c>
       <c r="CK2" t="n">
-        <v>646.2908935546875</v>
+        <v>499.2577514648438</v>
       </c>
       <c r="CL2" t="n">
-        <v>652.657958984375</v>
+        <v>499.2493286132812</v>
       </c>
       <c r="CM2" t="n">
-        <v>661.927734375</v>
+        <v>499.057373046875</v>
       </c>
       <c r="CN2" t="n">
-        <v>675.1903076171875</v>
+        <v>499.150390625</v>
       </c>
       <c r="CO2" t="n">
-        <v>674.089111328125</v>
+        <v>499.1824951171875</v>
       </c>
       <c r="CP2" t="n">
-        <v>672.0043334960938</v>
+        <v>499.146240234375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>668.5335693359375</v>
+        <v>499.1737365722656</v>
       </c>
       <c r="CR2" t="n">
-        <v>662.657958984375</v>
+        <v>499.4189147949219</v>
       </c>
       <c r="CS2" t="n">
-        <v>639.8155517578125</v>
+        <v>499.5556640625</v>
       </c>
       <c r="CT2" t="n">
-        <v>587.2549438476562</v>
+        <v>499.8427124023438</v>
       </c>
       <c r="CU2" t="n">
-        <v>554.850341796875</v>
+        <v>500.5449829101562</v>
       </c>
       <c r="CV2" t="n">
-        <v>528.1533203125</v>
+        <v>500.7599487304688</v>
       </c>
       <c r="CW2" t="n">
-        <v>512.9256591796875</v>
+        <v>500.1397094726562</v>
       </c>
       <c r="CX2" t="n">
-        <v>481.801025390625</v>
+        <v>499.1173095703125</v>
       </c>
       <c r="CY2" t="n">
-        <v>467.7814025878906</v>
+        <v>496.3858642578125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>460.3156127929688</v>
+        <v>493.9432373046875</v>
       </c>
       <c r="DA2" t="n">
-        <v>457.8353271484375</v>
+        <v>491.718994140625</v>
       </c>
       <c r="DB2" t="n">
-        <v>457.1891784667969</v>
+        <v>490.6530151367188</v>
       </c>
       <c r="DC2" t="n">
-        <v>458.4342041015625</v>
+        <v>487.8236389160156</v>
       </c>
       <c r="DD2" t="n">
-        <v>456.6107482910156</v>
+        <v>485.8349304199219</v>
       </c>
       <c r="DE2" t="n">
-        <v>447.5507202148438</v>
+        <v>480.823486328125</v>
       </c>
       <c r="DF2" t="n">
-        <v>438.5933837890625</v>
+        <v>477.1648864746094</v>
       </c>
       <c r="DG2" t="n">
-        <v>432.0560302734375</v>
+        <v>473.0703430175781</v>
       </c>
       <c r="DH2" t="n">
-        <v>428.8724365234375</v>
+        <v>466.1837463378906</v>
       </c>
       <c r="DI2" t="n">
-        <v>425.6387939453125</v>
+        <v>463.7093811035156</v>
       </c>
       <c r="DJ2" t="n">
-        <v>425.3001708984375</v>
+        <v>460.5225830078125</v>
       </c>
       <c r="DK2" t="n">
-        <v>425.4289245605469</v>
+        <v>451.594482421875</v>
       </c>
       <c r="DL2" t="n">
-        <v>425.2746887207031</v>
+        <v>447.446044921875</v>
       </c>
       <c r="DM2" t="n">
-        <v>425.2819519042969</v>
+        <v>440.78515625</v>
       </c>
       <c r="DN2" t="n">
-        <v>429.8264770507812</v>
+        <v>428.3362426757812</v>
       </c>
       <c r="DO2" t="n">
-        <v>433.4107666015625</v>
+        <v>399.5751342773438</v>
       </c>
       <c r="DP2" t="n">
-        <v>435.0564575195312</v>
+        <v>397.49609375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>439.4670104980469</v>
+        <v>386.0812377929688</v>
       </c>
       <c r="DR2" t="n">
-        <v>441.8568115234375</v>
+        <v>377.55615234375</v>
       </c>
       <c r="DS2" t="n">
-        <v>444.1697387695312</v>
+        <v>366.2357177734375</v>
       </c>
       <c r="DT2" t="n">
-        <v>445.069091796875</v>
+        <v>361.0465087890625</v>
       </c>
       <c r="DU2" t="n">
-        <v>445.81103515625</v>
+        <v>360.8284301757812</v>
       </c>
       <c r="DV2" t="n">
-        <v>444.201416015625</v>
+        <v>361.71240234375</v>
       </c>
       <c r="DW2" t="n">
-        <v>441.0062255859375</v>
+        <v>362.0699462890625</v>
       </c>
       <c r="DX2" t="n">
-        <v>439.504150390625</v>
+        <v>363.0184936523438</v>
       </c>
       <c r="DY2" t="n">
-        <v>438.31640625</v>
+        <v>382.0765686035156</v>
       </c>
       <c r="DZ2" t="n">
-        <v>435.9381408691406</v>
+        <v>396.8408508300781</v>
       </c>
       <c r="EA2" t="n">
-        <v>435.8271789550781</v>
+        <v>401.1081237792969</v>
       </c>
       <c r="EB2" t="n">
-        <v>440.80224609375</v>
+        <v>413.666748046875</v>
       </c>
       <c r="EC2" t="n">
-        <v>450.7708129882812</v>
+        <v>420.86572265625</v>
       </c>
       <c r="ED2" t="n">
-        <v>457.3027038574219</v>
+        <v>435.8035278320312</v>
       </c>
       <c r="EE2" t="n">
-        <v>471.943359375</v>
+        <v>443.41455078125</v>
       </c>
       <c r="EF2" t="n">
-        <v>493.3423156738281</v>
+        <v>457.5123596191406</v>
       </c>
       <c r="EG2" t="n">
-        <v>508.0344848632812</v>
+        <v>462.805419921875</v>
       </c>
       <c r="EH2" t="n">
-        <v>514.9404907226562</v>
+        <v>467.9411315917969</v>
       </c>
       <c r="EI2" t="n">
-        <v>524.6956787109375</v>
+        <v>470.3640747070312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>530.4793090820312</v>
+        <v>473.9714965820312</v>
       </c>
       <c r="EK2" t="n">
-        <v>534.855712890625</v>
+        <v>476.4385375976562</v>
       </c>
       <c r="EL2" t="n">
-        <v>534.747314453125</v>
+        <v>472.3460693359375</v>
       </c>
       <c r="EM2" t="n">
-        <v>538.2730102539062</v>
+        <v>466.8734436035156</v>
       </c>
       <c r="EN2" t="n">
-        <v>539.95166015625</v>
+        <v>459.2131958007812</v>
       </c>
       <c r="EO2" t="n">
-        <v>537.7188110351562</v>
+        <v>445.6061401367188</v>
       </c>
       <c r="EP2" t="n">
-        <v>537.6497192382812</v>
+        <v>438.4938354492188</v>
       </c>
       <c r="EQ2" t="n">
-        <v>542.5947265625</v>
+        <v>422.3091125488281</v>
       </c>
       <c r="ER2" t="n">
-        <v>544.3584594726562</v>
+        <v>403.272216796875</v>
       </c>
       <c r="ES2" t="n">
-        <v>542.316650390625</v>
+        <v>401.7455444335938</v>
       </c>
       <c r="ET2" t="n">
-        <v>541.9033813476562</v>
+        <v>400.5380554199219</v>
       </c>
       <c r="EU2" t="n">
-        <v>542.7635498046875</v>
+        <v>401.5857543945312</v>
       </c>
       <c r="EV2" t="n">
-        <v>543.0281372070312</v>
+        <v>406.4337463378906</v>
       </c>
       <c r="EW2" t="n">
-        <v>540.354736328125</v>
+        <v>408.7080688476562</v>
       </c>
       <c r="EX2" t="n">
-        <v>536.9252319335938</v>
+        <v>410.5576171875</v>
       </c>
       <c r="EY2" t="n">
-        <v>533.5469360351562</v>
+        <v>412.2787170410156</v>
       </c>
       <c r="EZ2" t="n">
-        <v>533.5</v>
+        <v>414.274658203125</v>
       </c>
       <c r="FA2" t="n">
-        <v>535.0722045898438</v>
+        <v>414.8460388183594</v>
       </c>
       <c r="FB2" t="n">
-        <v>534.9530029296875</v>
+        <v>416.00830078125</v>
       </c>
       <c r="FC2" t="n">
-        <v>535.2334594726562</v>
+        <v>418.10595703125</v>
       </c>
       <c r="FD2" t="n">
-        <v>533.6854248046875</v>
+        <v>418.00927734375</v>
       </c>
       <c r="FE2" t="n">
-        <v>533.6179809570312</v>
+        <v>416.1908264160156</v>
       </c>
       <c r="FF2" t="n">
-        <v>532.72900390625</v>
+        <v>417.4988098144531</v>
       </c>
       <c r="FG2" t="n">
-        <v>531.13720703125</v>
+        <v>418.1486511230469</v>
       </c>
       <c r="FH2" t="n">
-        <v>529.8038330078125</v>
+        <v>417.6813354492188</v>
       </c>
       <c r="FI2" t="n">
-        <v>528.3373413085938</v>
+        <v>418.6945190429688</v>
       </c>
       <c r="FJ2" t="n">
-        <v>531.4227294921875</v>
+        <v>418.2242126464844</v>
       </c>
       <c r="FK2" t="n">
-        <v>545.4729614257812</v>
+        <v>419.6256713867188</v>
       </c>
       <c r="FL2" t="n">
-        <v>548.2738037109375</v>
+        <v>420.2312927246094</v>
       </c>
       <c r="FM2" t="n">
-        <v>543.0889282226562</v>
+        <v>423.3967590332031</v>
       </c>
       <c r="FN2" t="n">
-        <v>535.57861328125</v>
+        <v>425.87841796875</v>
       </c>
       <c r="FO2" t="n">
-        <v>545.8755493164062</v>
+        <v>438.9376525878906</v>
       </c>
       <c r="FP2" t="n">
-        <v>537.9944458007812</v>
+        <v>454.2320251464844</v>
       </c>
       <c r="FQ2" t="n">
-        <v>509.2381591796875</v>
+        <v>465.4342041015625</v>
       </c>
       <c r="FR2" t="n">
-        <v>493.6297912597656</v>
+        <v>489.2064208984375</v>
       </c>
       <c r="FS2" t="n">
-        <v>487.809814453125</v>
+        <v>500.3888549804688</v>
       </c>
       <c r="FT2" t="n">
-        <v>475.8972473144531</v>
+        <v>525.2610473632812</v>
       </c>
       <c r="FU2" t="n">
-        <v>470.3686218261719</v>
+        <v>542.8817749023438</v>
       </c>
       <c r="FV2" t="n">
-        <v>465.3630981445312</v>
+        <v>555.4290771484375</v>
       </c>
       <c r="FW2" t="n">
-        <v>457.6027221679688</v>
+        <v>566.2610473632812</v>
       </c>
       <c r="FX2" t="n">
-        <v>456.1265869140625</v>
+        <v>565.7088012695312</v>
       </c>
       <c r="FY2" t="n">
-        <v>454.4290466308594</v>
+        <v>568.8262329101562</v>
       </c>
       <c r="FZ2" t="n">
-        <v>452.3250122070312</v>
+        <v>568.69677734375</v>
       </c>
       <c r="GA2" t="n">
-        <v>452.6001586914062</v>
+        <v>565.5946655273438</v>
       </c>
       <c r="GB2" t="n">
-        <v>452.6532592773438</v>
+        <v>563.8849487304688</v>
       </c>
       <c r="GC2" t="n">
-        <v>452.0450134277344</v>
+        <v>553.6881713867188</v>
       </c>
       <c r="GD2" t="n">
-        <v>449.1529541015625</v>
+        <v>545.3875122070312</v>
       </c>
       <c r="GE2" t="n">
-        <v>448.8511657714844</v>
+        <v>521.9044799804688</v>
       </c>
       <c r="GF2" t="n">
-        <v>448.45849609375</v>
+        <v>508.1236572265625</v>
       </c>
       <c r="GG2" t="n">
-        <v>447.6686096191406</v>
+        <v>501.9572448730469</v>
       </c>
       <c r="GH2" t="n">
-        <v>446.3203125</v>
+        <v>500.0286560058594</v>
       </c>
       <c r="GI2" t="n">
-        <v>445.9274291992188</v>
+        <v>499.698486328125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>446.7471923828125</v>
+        <v>496.7706298828125</v>
       </c>
       <c r="GK2" t="n">
-        <v>444.5952758789062</v>
+        <v>490.5060424804688</v>
       </c>
       <c r="GL2" t="n">
-        <v>439.1739501953125</v>
+        <v>490.0499267578125</v>
       </c>
       <c r="GM2" t="n">
-        <v>437.1298217773438</v>
+        <v>489.4104614257812</v>
       </c>
       <c r="GN2" t="n">
-        <v>434.7385864257812</v>
+        <v>485.8936157226562</v>
       </c>
       <c r="GO2" t="n">
-        <v>428.5501098632812</v>
+        <v>448.9297485351562</v>
       </c>
       <c r="GP2" t="n">
-        <v>420.9270629882812</v>
+        <v>431.7357177734375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>414.7734069824219</v>
+        <v>425.7976684570312</v>
       </c>
       <c r="GR2" t="n">
-        <v>403.7493286132812</v>
+        <v>423.6065063476562</v>
       </c>
       <c r="GS2" t="n">
-        <v>397.7667236328125</v>
+        <v>422.9527282714844</v>
       </c>
       <c r="GT2" t="n">
-        <v>396.7294616699219</v>
+        <v>421.652587890625</v>
       </c>
       <c r="GU2" t="n">
-        <v>386.431640625</v>
+        <v>418.7843017578125</v>
       </c>
       <c r="GV2" t="n">
-        <v>381.4456787109375</v>
+        <v>416.3276977539062</v>
       </c>
       <c r="GW2" t="n">
-        <v>380.0347900390625</v>
+        <v>410.6362609863281</v>
       </c>
       <c r="GX2" t="n">
-        <v>380.6823120117188</v>
+        <v>385.9941101074219</v>
       </c>
       <c r="GY2" t="n">
-        <v>380.751708984375</v>
+        <v>353.4585571289062</v>
       </c>
       <c r="GZ2" t="n">
-        <v>380.1260070800781</v>
+        <v>333.1007385253906</v>
       </c>
       <c r="HA2" t="n">
-        <v>379.9119567871094</v>
+        <v>312.9929504394531</v>
       </c>
       <c r="HB2" t="n">
-        <v>378.76025390625</v>
+        <v>268.7556457519531</v>
       </c>
       <c r="HC2" t="n">
-        <v>376.8931274414062</v>
+        <v>294.0545654296875</v>
       </c>
       <c r="HD2" t="n">
-        <v>375.9534301757812</v>
+        <v>260.5353393554688</v>
       </c>
       <c r="HE2" t="n">
-        <v>375.2327880859375</v>
+        <v>263.2499084472656</v>
       </c>
       <c r="HF2" t="n">
-        <v>374.0448608398438</v>
+        <v>246.2709808349609</v>
       </c>
       <c r="HG2" t="n">
-        <v>381.013916015625</v>
+        <v>245.4657745361328</v>
       </c>
       <c r="HH2" t="n">
-        <v>361.0751037597656</v>
+        <v>250.2844848632812</v>
       </c>
       <c r="HI2" t="n">
-        <v>381.4149475097656</v>
+        <v>246.0699768066406</v>
       </c>
       <c r="HJ2" t="n">
-        <v>385.78466796875</v>
+        <v>253.5206909179688</v>
       </c>
       <c r="HK2" t="n">
-        <v>402.0137023925781</v>
+        <v>263.1581726074219</v>
       </c>
       <c r="HL2" t="n">
-        <v>412.4511108398438</v>
+        <v>295.2768859863281</v>
       </c>
       <c r="HM2" t="n">
-        <v>409.0767211914062</v>
+        <v>305.9993591308594</v>
       </c>
       <c r="HN2" t="n">
-        <v>412.7003784179688</v>
+        <v>323.5068359375</v>
       </c>
       <c r="HO2" t="n">
-        <v>434.5271606445312</v>
+        <v>338.0424194335938</v>
       </c>
       <c r="HP2" t="n">
-        <v>443.2314453125</v>
+        <v>350.5016479492188</v>
       </c>
       <c r="HQ2" t="n">
-        <v>446.167236328125</v>
+        <v>370.6515808105469</v>
       </c>
       <c r="HR2" t="n">
-        <v>460.7106323242188</v>
+        <v>389.5868530273438</v>
       </c>
       <c r="HS2" t="n">
-        <v>470.0454711914062</v>
+        <v>413.8910217285156</v>
       </c>
       <c r="HT2" t="n">
-        <v>475.3289794921875</v>
+        <v>440.1176147460938</v>
       </c>
       <c r="HU2" t="n">
-        <v>474.520751953125</v>
+        <v>458.212158203125</v>
       </c>
       <c r="HV2" t="n">
-        <v>476.6154174804688</v>
+        <v>483.2539672851562</v>
       </c>
       <c r="HW2" t="n">
-        <v>480.8058471679688</v>
+        <v>510.3769226074219</v>
       </c>
       <c r="HX2" t="n">
-        <v>479.9832153320312</v>
+        <v>564.0347290039062</v>
       </c>
       <c r="HY2" t="n">
-        <v>480.7791137695312</v>
+        <v>509.23486328125</v>
       </c>
       <c r="HZ2" t="n">
-        <v>480.0487670898438</v>
+        <v>549.7167358398438</v>
       </c>
       <c r="IA2" t="n">
-        <v>479.1419067382812</v>
+        <v>496.1926879882812</v>
       </c>
       <c r="IB2" t="n">
-        <v>477.3709411621094</v>
+        <v>493.7915649414062</v>
       </c>
       <c r="IC2" t="n">
-        <v>473.9120788574219</v>
+        <v>496.6503295898438</v>
       </c>
       <c r="ID2" t="n">
-        <v>472.1854248046875</v>
+        <v>475.4394836425781</v>
       </c>
       <c r="IE2" t="n">
-        <v>467.5927429199219</v>
+        <v>454.5682373046875</v>
       </c>
       <c r="IF2" t="n">
-        <v>464.0119018554688</v>
+        <v>396.9881591796875</v>
       </c>
       <c r="IG2" t="n">
-        <v>465.0899658203125</v>
+        <v>378.981689453125</v>
       </c>
       <c r="IH2" t="n">
-        <v>464.90673828125</v>
+        <v>392.0701599121094</v>
       </c>
       <c r="II2" t="n">
-        <v>455.1088256835938</v>
+        <v>390.930419921875</v>
       </c>
       <c r="IJ2" t="n">
-        <v>451.523193359375</v>
+        <v>406.8948974609375</v>
       </c>
       <c r="IK2" t="n">
-        <v>441.1660766601562</v>
+        <v>423.3251342773438</v>
       </c>
       <c r="IL2" t="n">
-        <v>439.4420776367188</v>
+        <v>438.8962097167969</v>
       </c>
       <c r="IM2" t="n">
-        <v>426.2092590332031</v>
+        <v>428.3243103027344</v>
       </c>
       <c r="IN2" t="n">
-        <v>413.8220825195312</v>
+        <v>518.7413940429688</v>
       </c>
       <c r="IO2" t="n">
-        <v>417.2711791992188</v>
+        <v>519.2335815429688</v>
       </c>
       <c r="IP2" t="n">
-        <v>413.2157897949219</v>
+        <v>461.1480712890625</v>
       </c>
       <c r="IQ2" t="n">
-        <v>400.55078125</v>
+        <v>453.1910400390625</v>
       </c>
       <c r="IR2" t="n">
-        <v>402.9217834472656</v>
+        <v>457.4544677734375</v>
       </c>
       <c r="IS2" t="n">
-        <v>399.8424682617188</v>
+        <v>436.6994934082031</v>
       </c>
       <c r="IT2" t="n">
-        <v>386.857666015625</v>
+        <v>422.2702331542969</v>
       </c>
       <c r="IU2" t="n">
-        <v>385.126708984375</v>
+        <v>357.0859375</v>
       </c>
       <c r="IV2" t="n">
-        <v>390.3336181640625</v>
+        <v>313.3203735351562</v>
       </c>
       <c r="IW2" t="n">
-        <v>391.7310180664062</v>
+        <v>338.9774169921875</v>
       </c>
       <c r="IX2" t="n">
-        <v>392.0815734863281</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>391.6925048828125</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>391.6296997070312</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>391.9911499023438</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>392.4786987304688</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>392.9676818847656</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>394.6154479980469</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>407.2434692382812</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>409.1195678710938</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>417.7176208496094</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>424.1883850097656</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>437.0885925292969</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>439.6820678710938</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>450.9302062988281</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>460.2607727050781</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>465.912841796875</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>472.6528930664062</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>472.7462463378906</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>471.8378295898438</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>472.1749572753906</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>472.2012329101562</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>471.5929870605469</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>471.5661010742188</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>472.0052795410156</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>472.5349426269531</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>473.6771850585938</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>475.1610107421875</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>478.11865234375</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>480.1044311523438</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>484.7878723144531</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>497.7129516601562</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>526.9498901367188</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>576.2459716796875</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>573.5359497070312</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>582.0721435546875</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>566.0950317382812</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>562.9338989257812</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>562.8619995117188</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>571.1318969726562</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>569.8575439453125</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>568.7399291992188</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>565.4268798828125</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>561.3182373046875</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>552.0675048828125</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>535.6915893554688</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>508.3956298828125</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>491.452392578125</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>474.4454956054688</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>470.47900390625</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>467.567626953125</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>469.0574645996094</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>470.8899230957031</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>473.2062377929688</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>478.3233642578125</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>489.2378234863281</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>493.2658386230469</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>493.75732421875</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>493.4129333496094</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>490.417236328125</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>485.2256469726562</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>484.3193969726562</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>485.3262939453125</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>487.1819458007812</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>493.216796875</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>505.2239379882812</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>521.5923461914062</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>534.5872192382812</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>550.4443969726562</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>571.9105834960938</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>583.2937622070312</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>599.9623413085938</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>612.3341064453125</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>633.5242919921875</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>653.5394287109375</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>569.047607421875</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>567.8836669921875</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>627.7615356445312</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>658.6144409179688</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>681.028076171875</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>652.6942138671875</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>624.9487915039062</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>628.7061157226562</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>606.9923706054688</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>574.394775390625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>539.7365112304688</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>535.0703735351562</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>535.9446411132812</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>541.73291015625</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>542.5180053710938</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>536.44677734375</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>521.0994262695312</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>516.3089599609375</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>491.9364013671875</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>461.5823974609375</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>489.8834838867188</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>479.4629516601562</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>517.3510131835938</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>544.6013793945312</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>522.6782836914062</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>432.1275329589844</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>530.8135375976562</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>430.6640930175781</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>537.8532104492188</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>414.5124816894531</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>388.7384338378906</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>375.2786254882812</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>435.1009826660156</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>445.8896179199219</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>502.8491516113281</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>607.3500366210938</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>721.7662353515625</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>717.0653076171875</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>642.279541015625</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>635.9149780273438</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>597.1939086914062</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>516.049560546875</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>433.6712646484375</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>481.7227783203125</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>467.1277160644531</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>525.0140380859375</v>
+        <v>351.8358154296875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>409.8050842285156</v>
+        <v>446.9702453613281</v>
       </c>
       <c r="B3" t="n">
-        <v>399.2946166992188</v>
+        <v>435.382568359375</v>
       </c>
       <c r="C3" t="n">
-        <v>394.7077941894531</v>
+        <v>424.4457702636719</v>
       </c>
       <c r="D3" t="n">
-        <v>392.7742614746094</v>
+        <v>422.9936218261719</v>
       </c>
       <c r="E3" t="n">
-        <v>393.2394714355469</v>
+        <v>430.5032043457031</v>
       </c>
       <c r="F3" t="n">
-        <v>369.3002624511719</v>
+        <v>428.7126159667969</v>
       </c>
       <c r="G3" t="n">
-        <v>370.7398681640625</v>
+        <v>407.4790649414062</v>
       </c>
       <c r="H3" t="n">
-        <v>372.71728515625</v>
+        <v>404.81640625</v>
       </c>
       <c r="I3" t="n">
-        <v>373.1380310058594</v>
+        <v>409.4715270996094</v>
       </c>
       <c r="J3" t="n">
-        <v>374.2957153320312</v>
+        <v>407.1212158203125</v>
       </c>
       <c r="K3" t="n">
-        <v>379.4139099121094</v>
+        <v>407.6592102050781</v>
       </c>
       <c r="L3" t="n">
-        <v>382.7203674316406</v>
+        <v>407.9247741699219</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9721374511719</v>
+        <v>406.7145080566406</v>
       </c>
       <c r="N3" t="n">
-        <v>361.2098999023438</v>
+        <v>405.7571716308594</v>
       </c>
       <c r="O3" t="n">
-        <v>358.8861083984375</v>
+        <v>427.1900939941406</v>
       </c>
       <c r="P3" t="n">
-        <v>359.8659973144531</v>
+        <v>424.875244140625</v>
       </c>
       <c r="Q3" t="n">
-        <v>361.2306518554688</v>
+        <v>420.7048950195312</v>
       </c>
       <c r="R3" t="n">
-        <v>368.9681091308594</v>
+        <v>419.0791625976562</v>
       </c>
       <c r="S3" t="n">
-        <v>372.6888427734375</v>
+        <v>417.5191955566406</v>
       </c>
       <c r="T3" t="n">
-        <v>374.8382873535156</v>
+        <v>419.3290100097656</v>
       </c>
       <c r="U3" t="n">
-        <v>376.7312622070312</v>
+        <v>417.4176330566406</v>
       </c>
       <c r="V3" t="n">
-        <v>381.3882141113281</v>
+        <v>415.3980102539062</v>
       </c>
       <c r="W3" t="n">
-        <v>383.7382507324219</v>
+        <v>414.0956420898438</v>
       </c>
       <c r="X3" t="n">
-        <v>382.6457824707031</v>
+        <v>412.5679321289062</v>
       </c>
       <c r="Y3" t="n">
-        <v>377.8828735351562</v>
+        <v>411.6184387207031</v>
       </c>
       <c r="Z3" t="n">
-        <v>376.7571105957031</v>
+        <v>410.1402893066406</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.27392578125</v>
+        <v>407.2997131347656</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.4538879394531</v>
+        <v>405.1427001953125</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.3225708007812</v>
+        <v>404.7895812988281</v>
       </c>
       <c r="AD3" t="n">
-        <v>398.7877197265625</v>
+        <v>405.8529968261719</v>
       </c>
       <c r="AE3" t="n">
-        <v>396.4996337890625</v>
+        <v>407.3422546386719</v>
       </c>
       <c r="AF3" t="n">
-        <v>394.5817565917969</v>
+        <v>407.0903015136719</v>
       </c>
       <c r="AG3" t="n">
-        <v>393.6162109375</v>
+        <v>406.1764526367188</v>
       </c>
       <c r="AH3" t="n">
-        <v>389.0360412597656</v>
+        <v>403.7248229980469</v>
       </c>
       <c r="AI3" t="n">
-        <v>381.2007446289062</v>
+        <v>403.2939758300781</v>
       </c>
       <c r="AJ3" t="n">
-        <v>373.3507995605469</v>
+        <v>402.474609375</v>
       </c>
       <c r="AK3" t="n">
-        <v>372.8363342285156</v>
+        <v>399.8345031738281</v>
       </c>
       <c r="AL3" t="n">
-        <v>371.8080139160156</v>
+        <v>401.6337890625</v>
       </c>
       <c r="AM3" t="n">
-        <v>371.219970703125</v>
+        <v>401.8384399414062</v>
       </c>
       <c r="AN3" t="n">
-        <v>372.0272216796875</v>
+        <v>402.1102905273438</v>
       </c>
       <c r="AO3" t="n">
-        <v>374.0746765136719</v>
+        <v>401.1380615234375</v>
       </c>
       <c r="AP3" t="n">
-        <v>374.2336120605469</v>
+        <v>399.20849609375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>374.6711120605469</v>
+        <v>397.7335510253906</v>
       </c>
       <c r="AR3" t="n">
-        <v>374.4356689453125</v>
+        <v>396.2943115234375</v>
       </c>
       <c r="AS3" t="n">
-        <v>373.4713439941406</v>
+        <v>395.5013732910156</v>
       </c>
       <c r="AT3" t="n">
-        <v>373.8079528808594</v>
+        <v>394.7717590332031</v>
       </c>
       <c r="AU3" t="n">
-        <v>376.0431823730469</v>
+        <v>393.9997253417969</v>
       </c>
       <c r="AV3" t="n">
-        <v>379.7687683105469</v>
+        <v>392.8830261230469</v>
       </c>
       <c r="AW3" t="n">
-        <v>381.4126586914062</v>
+        <v>390.6279602050781</v>
       </c>
       <c r="AX3" t="n">
-        <v>380.1329345703125</v>
+        <v>389.7200012207031</v>
       </c>
       <c r="AY3" t="n">
-        <v>381.3015747070312</v>
+        <v>385.4798583984375</v>
       </c>
       <c r="AZ3" t="n">
-        <v>376.9615783691406</v>
+        <v>368.8389587402344</v>
       </c>
       <c r="BA3" t="n">
-        <v>360.6556091308594</v>
+        <v>358.9137268066406</v>
       </c>
       <c r="BB3" t="n">
-        <v>336.4029541015625</v>
+        <v>338.5110168457031</v>
       </c>
       <c r="BC3" t="n">
-        <v>315.1594848632812</v>
+        <v>323.2992248535156</v>
       </c>
       <c r="BD3" t="n">
-        <v>294.0341796875</v>
+        <v>306.360107421875</v>
       </c>
       <c r="BE3" t="n">
-        <v>268.3743896484375</v>
+        <v>287.499267578125</v>
       </c>
       <c r="BF3" t="n">
-        <v>241.6388549804688</v>
+        <v>270.36376953125</v>
       </c>
       <c r="BG3" t="n">
-        <v>221.3241882324219</v>
+        <v>254.6387329101562</v>
       </c>
       <c r="BH3" t="n">
-        <v>209.1523895263672</v>
+        <v>243.4763946533203</v>
       </c>
       <c r="BI3" t="n">
-        <v>200.6942443847656</v>
+        <v>235.8580322265625</v>
       </c>
       <c r="BJ3" t="n">
-        <v>196.7666625976562</v>
+        <v>229.7666015625</v>
       </c>
       <c r="BK3" t="n">
-        <v>191.7783203125</v>
+        <v>227.0090484619141</v>
       </c>
       <c r="BL3" t="n">
-        <v>189.9709625244141</v>
+        <v>226.370361328125</v>
       </c>
       <c r="BM3" t="n">
-        <v>188.7254180908203</v>
+        <v>226.6834564208984</v>
       </c>
       <c r="BN3" t="n">
-        <v>186.0432281494141</v>
+        <v>227.0798187255859</v>
       </c>
       <c r="BO3" t="n">
-        <v>179.2278594970703</v>
+        <v>229.9019470214844</v>
       </c>
       <c r="BP3" t="n">
-        <v>176.6645202636719</v>
+        <v>234.3862609863281</v>
       </c>
       <c r="BQ3" t="n">
-        <v>175.3585510253906</v>
+        <v>235.8175201416016</v>
       </c>
       <c r="BR3" t="n">
-        <v>175.9501800537109</v>
+        <v>236.6017303466797</v>
       </c>
       <c r="BS3" t="n">
-        <v>175.47998046875</v>
+        <v>236.7289581298828</v>
       </c>
       <c r="BT3" t="n">
-        <v>175.9066009521484</v>
+        <v>237.7355194091797</v>
       </c>
       <c r="BU3" t="n">
-        <v>175.5244445800781</v>
+        <v>239.8284149169922</v>
       </c>
       <c r="BV3" t="n">
-        <v>174.7563781738281</v>
+        <v>242.6949462890625</v>
       </c>
       <c r="BW3" t="n">
-        <v>173.0005645751953</v>
+        <v>246.3720397949219</v>
       </c>
       <c r="BX3" t="n">
-        <v>169.4685974121094</v>
+        <v>249.0556488037109</v>
       </c>
       <c r="BY3" t="n">
-        <v>161.6922607421875</v>
+        <v>252.9875335693359</v>
       </c>
       <c r="BZ3" t="n">
-        <v>160.4122772216797</v>
+        <v>252.4107513427734</v>
       </c>
       <c r="CA3" t="n">
-        <v>158.5405578613281</v>
+        <v>253.8403472900391</v>
       </c>
       <c r="CB3" t="n">
-        <v>156.2334136962891</v>
+        <v>256.1518249511719</v>
       </c>
       <c r="CC3" t="n">
-        <v>155.2534027099609</v>
+        <v>256.8652648925781</v>
       </c>
       <c r="CD3" t="n">
-        <v>155.8497772216797</v>
+        <v>259.2467041015625</v>
       </c>
       <c r="CE3" t="n">
-        <v>154.0418090820312</v>
+        <v>261.1099548339844</v>
       </c>
       <c r="CF3" t="n">
-        <v>151.8130340576172</v>
+        <v>262.5866088867188</v>
       </c>
       <c r="CG3" t="n">
-        <v>150.5946197509766</v>
+        <v>263.5691223144531</v>
       </c>
       <c r="CH3" t="n">
-        <v>148.5156555175781</v>
+        <v>263.6208801269531</v>
       </c>
       <c r="CI3" t="n">
-        <v>148.8143157958984</v>
+        <v>264.0718078613281</v>
       </c>
       <c r="CJ3" t="n">
-        <v>147.9207305908203</v>
+        <v>264.3309936523438</v>
       </c>
       <c r="CK3" t="n">
-        <v>149.8993072509766</v>
+        <v>264.4066162109375</v>
       </c>
       <c r="CL3" t="n">
-        <v>154.5082702636719</v>
+        <v>264.5858764648438</v>
       </c>
       <c r="CM3" t="n">
-        <v>168.5471649169922</v>
+        <v>264.8713684082031</v>
       </c>
       <c r="CN3" t="n">
-        <v>191.464111328125</v>
+        <v>264.88330078125</v>
       </c>
       <c r="CO3" t="n">
-        <v>192.3033294677734</v>
+        <v>264.9922485351562</v>
       </c>
       <c r="CP3" t="n">
-        <v>196.0605621337891</v>
+        <v>265.1582336425781</v>
       </c>
       <c r="CQ3" t="n">
-        <v>210.5035400390625</v>
+        <v>265.3621826171875</v>
       </c>
       <c r="CR3" t="n">
-        <v>230.2783660888672</v>
+        <v>265.4881286621094</v>
       </c>
       <c r="CS3" t="n">
-        <v>303.3830261230469</v>
+        <v>265.8620300292969</v>
       </c>
       <c r="CT3" t="n">
-        <v>351.5835571289062</v>
+        <v>267.1687622070312</v>
       </c>
       <c r="CU3" t="n">
-        <v>375.3497619628906</v>
+        <v>270.8687438964844</v>
       </c>
       <c r="CV3" t="n">
-        <v>388.538330078125</v>
+        <v>275.0225524902344</v>
       </c>
       <c r="CW3" t="n">
-        <v>391.9839477539062</v>
+        <v>278.470458984375</v>
       </c>
       <c r="CX3" t="n">
-        <v>398.8810119628906</v>
+        <v>283.1157531738281</v>
       </c>
       <c r="CY3" t="n">
-        <v>399.5802917480469</v>
+        <v>291.1295471191406</v>
       </c>
       <c r="CZ3" t="n">
-        <v>394.2732238769531</v>
+        <v>297.8678588867188</v>
       </c>
       <c r="DA3" t="n">
-        <v>391.8707275390625</v>
+        <v>307.5036010742188</v>
       </c>
       <c r="DB3" t="n">
-        <v>388.4932250976562</v>
+        <v>312.9092407226562</v>
       </c>
       <c r="DC3" t="n">
-        <v>387.4068908691406</v>
+        <v>317.3286437988281</v>
       </c>
       <c r="DD3" t="n">
-        <v>384.724609375</v>
+        <v>326.058837890625</v>
       </c>
       <c r="DE3" t="n">
-        <v>383.7635192871094</v>
+        <v>336.7647399902344</v>
       </c>
       <c r="DF3" t="n">
-        <v>385.9129028320312</v>
+        <v>343.0758056640625</v>
       </c>
       <c r="DG3" t="n">
-        <v>386.322265625</v>
+        <v>350.1234130859375</v>
       </c>
       <c r="DH3" t="n">
-        <v>384.4200744628906</v>
+        <v>352.185546875</v>
       </c>
       <c r="DI3" t="n">
-        <v>381.8329772949219</v>
+        <v>359.12353515625</v>
       </c>
       <c r="DJ3" t="n">
-        <v>379.1274108886719</v>
+        <v>361.2666320800781</v>
       </c>
       <c r="DK3" t="n">
-        <v>379.6841735839844</v>
+        <v>368.8224792480469</v>
       </c>
       <c r="DL3" t="n">
-        <v>379.7469482421875</v>
+        <v>372.9314880371094</v>
       </c>
       <c r="DM3" t="n">
-        <v>379.5699157714844</v>
+        <v>375.5065307617188</v>
       </c>
       <c r="DN3" t="n">
-        <v>378.0252075195312</v>
+        <v>385.1793212890625</v>
       </c>
       <c r="DO3" t="n">
-        <v>377.7020568847656</v>
+        <v>393.0465393066406</v>
       </c>
       <c r="DP3" t="n">
-        <v>376.6001586914062</v>
+        <v>391.6935729980469</v>
       </c>
       <c r="DQ3" t="n">
-        <v>375.7820129394531</v>
+        <v>391.4220886230469</v>
       </c>
       <c r="DR3" t="n">
-        <v>374.719970703125</v>
+        <v>387.364501953125</v>
       </c>
       <c r="DS3" t="n">
-        <v>372.1329040527344</v>
+        <v>376.5395202636719</v>
       </c>
       <c r="DT3" t="n">
-        <v>369.2031860351562</v>
+        <v>358.1491394042969</v>
       </c>
       <c r="DU3" t="n">
-        <v>368.0332336425781</v>
+        <v>354.9522094726562</v>
       </c>
       <c r="DV3" t="n">
-        <v>367.4841613769531</v>
+        <v>354.9450073242188</v>
       </c>
       <c r="DW3" t="n">
-        <v>369.2134399414062</v>
+        <v>355.0531311035156</v>
       </c>
       <c r="DX3" t="n">
-        <v>371.5092468261719</v>
+        <v>355.5881958007812</v>
       </c>
       <c r="DY3" t="n">
-        <v>376.1950378417969</v>
+        <v>368.5399169921875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>385.3967590332031</v>
+        <v>386.2269897460938</v>
       </c>
       <c r="EA3" t="n">
-        <v>385.5435180664062</v>
+        <v>389.24072265625</v>
       </c>
       <c r="EB3" t="n">
-        <v>389.4403991699219</v>
+        <v>387.8758850097656</v>
       </c>
       <c r="EC3" t="n">
-        <v>393.03173828125</v>
+        <v>386.5223693847656</v>
       </c>
       <c r="ED3" t="n">
-        <v>393.8777465820312</v>
+        <v>377.7401733398438</v>
       </c>
       <c r="EE3" t="n">
-        <v>391.7440490722656</v>
+        <v>373.5894165039062</v>
       </c>
       <c r="EF3" t="n">
-        <v>398.9515686035156</v>
+        <v>360.4867553710938</v>
       </c>
       <c r="EG3" t="n">
-        <v>400.180419921875</v>
+        <v>354.1788024902344</v>
       </c>
       <c r="EH3" t="n">
-        <v>400.5683288574219</v>
+        <v>344.3943481445312</v>
       </c>
       <c r="EI3" t="n">
-        <v>397.5994873046875</v>
+        <v>339.9609985351562</v>
       </c>
       <c r="EJ3" t="n">
-        <v>398.3110961914062</v>
+        <v>334.8841857910156</v>
       </c>
       <c r="EK3" t="n">
-        <v>397.3039245605469</v>
+        <v>334.17578125</v>
       </c>
       <c r="EL3" t="n">
-        <v>393.8666381835938</v>
+        <v>342.6910705566406</v>
       </c>
       <c r="EM3" t="n">
-        <v>388.6063232421875</v>
+        <v>350.9049682617188</v>
       </c>
       <c r="EN3" t="n">
-        <v>386.2185363769531</v>
+        <v>359.0503540039062</v>
       </c>
       <c r="EO3" t="n">
-        <v>382.4893493652344</v>
+        <v>368.6808166503906</v>
       </c>
       <c r="EP3" t="n">
-        <v>381.0828857421875</v>
+        <v>372.51416015625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>385.0873718261719</v>
+        <v>385.2451477050781</v>
       </c>
       <c r="ER3" t="n">
-        <v>384.4854736328125</v>
+        <v>395.0706176757812</v>
       </c>
       <c r="ES3" t="n">
-        <v>382.7384033203125</v>
+        <v>397.0978393554688</v>
       </c>
       <c r="ET3" t="n">
-        <v>388.9588623046875</v>
+        <v>398.6594543457031</v>
       </c>
       <c r="EU3" t="n">
-        <v>390.4602966308594</v>
+        <v>396.9561157226562</v>
       </c>
       <c r="EV3" t="n">
-        <v>386.2167053222656</v>
+        <v>395.1537780761719</v>
       </c>
       <c r="EW3" t="n">
-        <v>378.7123107910156</v>
+        <v>394.548828125</v>
       </c>
       <c r="EX3" t="n">
-        <v>376.1007080078125</v>
+        <v>392.9771118164062</v>
       </c>
       <c r="EY3" t="n">
-        <v>374.0026550292969</v>
+        <v>392.8145751953125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>373.7610778808594</v>
+        <v>396.766357421875</v>
       </c>
       <c r="FA3" t="n">
-        <v>374.9551696777344</v>
+        <v>398.5259704589844</v>
       </c>
       <c r="FB3" t="n">
-        <v>377.3298034667969</v>
+        <v>400.9133605957031</v>
       </c>
       <c r="FC3" t="n">
-        <v>376.862060546875</v>
+        <v>404.7414245605469</v>
       </c>
       <c r="FD3" t="n">
-        <v>377.3953247070312</v>
+        <v>408.8850708007812</v>
       </c>
       <c r="FE3" t="n">
-        <v>378.0816345214844</v>
+        <v>410.116943359375</v>
       </c>
       <c r="FF3" t="n">
-        <v>373.927490234375</v>
+        <v>412.8424987792969</v>
       </c>
       <c r="FG3" t="n">
-        <v>365.6448669433594</v>
+        <v>411.3479309082031</v>
       </c>
       <c r="FH3" t="n">
-        <v>363.3780212402344</v>
+        <v>408.5338134765625</v>
       </c>
       <c r="FI3" t="n">
-        <v>355.5257263183594</v>
+        <v>406.5871887207031</v>
       </c>
       <c r="FJ3" t="n">
-        <v>352.2979736328125</v>
+        <v>401.1201782226562</v>
       </c>
       <c r="FK3" t="n">
-        <v>355.6812744140625</v>
+        <v>400.9010009765625</v>
       </c>
       <c r="FL3" t="n">
-        <v>356.6056518554688</v>
+        <v>401.9075012207031</v>
       </c>
       <c r="FM3" t="n">
-        <v>344.794189453125</v>
+        <v>397.3475036621094</v>
       </c>
       <c r="FN3" t="n">
-        <v>353.5153198242188</v>
+        <v>393.4464416503906</v>
       </c>
       <c r="FO3" t="n">
-        <v>354.5669555664062</v>
+        <v>385.802001953125</v>
       </c>
       <c r="FP3" t="n">
-        <v>357.5229797363281</v>
+        <v>382.5982055664062</v>
       </c>
       <c r="FQ3" t="n">
-        <v>366.9769897460938</v>
+        <v>376.7169189453125</v>
       </c>
       <c r="FR3" t="n">
-        <v>369.2877197265625</v>
+        <v>363.6604309082031</v>
       </c>
       <c r="FS3" t="n">
-        <v>373.2985534667969</v>
+        <v>356.7153625488281</v>
       </c>
       <c r="FT3" t="n">
-        <v>373.1255798339844</v>
+        <v>347.1213684082031</v>
       </c>
       <c r="FU3" t="n">
-        <v>373.2780151367188</v>
+        <v>329.0712585449219</v>
       </c>
       <c r="FV3" t="n">
-        <v>372.4798889160156</v>
+        <v>307.2936096191406</v>
       </c>
       <c r="FW3" t="n">
-        <v>370.9191284179688</v>
+        <v>284.3660278320312</v>
       </c>
       <c r="FX3" t="n">
-        <v>370.2847595214844</v>
+        <v>280.3572692871094</v>
       </c>
       <c r="FY3" t="n">
-        <v>368.7438049316406</v>
+        <v>273.8587341308594</v>
       </c>
       <c r="FZ3" t="n">
-        <v>365.50048828125</v>
+        <v>273.91845703125</v>
       </c>
       <c r="GA3" t="n">
-        <v>362.8663635253906</v>
+        <v>279.518310546875</v>
       </c>
       <c r="GB3" t="n">
-        <v>366.1814575195312</v>
+        <v>288.9728088378906</v>
       </c>
       <c r="GC3" t="n">
-        <v>366.6569213867188</v>
+        <v>314.8455810546875</v>
       </c>
       <c r="GD3" t="n">
-        <v>368.4968566894531</v>
+        <v>326.5133056640625</v>
       </c>
       <c r="GE3" t="n">
-        <v>368.6340026855469</v>
+        <v>340.3428344726562</v>
       </c>
       <c r="GF3" t="n">
-        <v>368.7120666503906</v>
+        <v>343.3672180175781</v>
       </c>
       <c r="GG3" t="n">
-        <v>370.9629516601562</v>
+        <v>345.3277893066406</v>
       </c>
       <c r="GH3" t="n">
-        <v>371.6196899414062</v>
+        <v>348.4114990234375</v>
       </c>
       <c r="GI3" t="n">
-        <v>371.746337890625</v>
+        <v>330.68359375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>374.8320007324219</v>
+        <v>329.8172607421875</v>
       </c>
       <c r="GK3" t="n">
-        <v>371.958740234375</v>
+        <v>335.26220703125</v>
       </c>
       <c r="GL3" t="n">
-        <v>368.2455749511719</v>
+        <v>355.6524047851562</v>
       </c>
       <c r="GM3" t="n">
-        <v>367.829345703125</v>
+        <v>396.3023986816406</v>
       </c>
       <c r="GN3" t="n">
-        <v>368.0167236328125</v>
+        <v>425.0685424804688</v>
       </c>
       <c r="GO3" t="n">
-        <v>367.597412109375</v>
+        <v>466.6404724121094</v>
       </c>
       <c r="GP3" t="n">
-        <v>368.8825378417969</v>
+        <v>484.1332092285156</v>
       </c>
       <c r="GQ3" t="n">
-        <v>366.35498046875</v>
+        <v>488.7626342773438</v>
       </c>
       <c r="GR3" t="n">
-        <v>366.13720703125</v>
+        <v>494.1103820800781</v>
       </c>
       <c r="GS3" t="n">
-        <v>363.1810302734375</v>
+        <v>500.9716491699219</v>
       </c>
       <c r="GT3" t="n">
-        <v>361.7898864746094</v>
+        <v>505.1658935546875</v>
       </c>
       <c r="GU3" t="n">
-        <v>354.6340942382812</v>
+        <v>506.8834838867188</v>
       </c>
       <c r="GV3" t="n">
-        <v>358.9637756347656</v>
+        <v>504.1481323242188</v>
       </c>
       <c r="GW3" t="n">
-        <v>361.0302429199219</v>
+        <v>495.9350891113281</v>
       </c>
       <c r="GX3" t="n">
-        <v>357.5196838378906</v>
+        <v>481.9925231933594</v>
       </c>
       <c r="GY3" t="n">
-        <v>356.1326904296875</v>
+        <v>469.0788269042969</v>
       </c>
       <c r="GZ3" t="n">
-        <v>355.6456298828125</v>
+        <v>458.7814636230469</v>
       </c>
       <c r="HA3" t="n">
-        <v>355.450927734375</v>
+        <v>463.7404479980469</v>
       </c>
       <c r="HB3" t="n">
-        <v>356.1708068847656</v>
+        <v>461.7219848632812</v>
       </c>
       <c r="HC3" t="n">
-        <v>350.5718383789062</v>
+        <v>439.6624755859375</v>
       </c>
       <c r="HD3" t="n">
-        <v>343.2886352539062</v>
+        <v>438.9545593261719</v>
       </c>
       <c r="HE3" t="n">
-        <v>346.638916015625</v>
+        <v>445.0322875976562</v>
       </c>
       <c r="HF3" t="n">
-        <v>347.9917907714844</v>
+        <v>456.6856384277344</v>
       </c>
       <c r="HG3" t="n">
-        <v>237.1792297363281</v>
+        <v>475.2825317382812</v>
       </c>
       <c r="HH3" t="n">
-        <v>353.7432861328125</v>
+        <v>481.3645935058594</v>
       </c>
       <c r="HI3" t="n">
-        <v>366.1685485839844</v>
+        <v>503.2376708984375</v>
       </c>
       <c r="HJ3" t="n">
-        <v>367.7289733886719</v>
+        <v>549.2092895507812</v>
       </c>
       <c r="HK3" t="n">
-        <v>358.4918212890625</v>
+        <v>572.3441772460938</v>
       </c>
       <c r="HL3" t="n">
-        <v>357.0518493652344</v>
+        <v>570.2577514648438</v>
       </c>
       <c r="HM3" t="n">
-        <v>358.4747009277344</v>
+        <v>562.9474487304688</v>
       </c>
       <c r="HN3" t="n">
-        <v>366.5799560546875</v>
+        <v>554.557861328125</v>
       </c>
       <c r="HO3" t="n">
-        <v>367.7677307128906</v>
+        <v>511.3403930664062</v>
       </c>
       <c r="HP3" t="n">
-        <v>369.3028259277344</v>
+        <v>500.58203125</v>
       </c>
       <c r="HQ3" t="n">
-        <v>368.3229064941406</v>
+        <v>497.8409423828125</v>
       </c>
       <c r="HR3" t="n">
-        <v>368.9808349609375</v>
+        <v>505.9988098144531</v>
       </c>
       <c r="HS3" t="n">
-        <v>368.5189514160156</v>
+        <v>523.8995971679688</v>
       </c>
       <c r="HT3" t="n">
-        <v>367.8558654785156</v>
+        <v>538.5826416015625</v>
       </c>
       <c r="HU3" t="n">
-        <v>368.5448303222656</v>
+        <v>512.5810546875</v>
       </c>
       <c r="HV3" t="n">
-        <v>366.3496398925781</v>
+        <v>555.84716796875</v>
       </c>
       <c r="HW3" t="n">
-        <v>367.844970703125</v>
+        <v>581.2595825195312</v>
       </c>
       <c r="HX3" t="n">
-        <v>371.7590942382812</v>
+        <v>629.90966796875</v>
       </c>
       <c r="HY3" t="n">
-        <v>374.9171447753906</v>
+        <v>577.6860961914062</v>
       </c>
       <c r="HZ3" t="n">
-        <v>379.9508972167969</v>
+        <v>641.3369750976562</v>
       </c>
       <c r="IA3" t="n">
-        <v>378.8726196289062</v>
+        <v>618.97900390625</v>
       </c>
       <c r="IB3" t="n">
-        <v>379.2437744140625</v>
+        <v>581.4653930664062</v>
       </c>
       <c r="IC3" t="n">
-        <v>379.5707092285156</v>
+        <v>556.5255737304688</v>
       </c>
       <c r="ID3" t="n">
-        <v>381.5843811035156</v>
+        <v>517.136474609375</v>
       </c>
       <c r="IE3" t="n">
-        <v>380.6248474121094</v>
+        <v>484.146484375</v>
       </c>
       <c r="IF3" t="n">
-        <v>379.1961364746094</v>
+        <v>448.4547424316406</v>
       </c>
       <c r="IG3" t="n">
-        <v>380.3900146484375</v>
+        <v>441.4541931152344</v>
       </c>
       <c r="IH3" t="n">
-        <v>379.5303955078125</v>
+        <v>445.2332458496094</v>
       </c>
       <c r="II3" t="n">
-        <v>379.6889953613281</v>
+        <v>444.5881652832031</v>
       </c>
       <c r="IJ3" t="n">
-        <v>378.87158203125</v>
+        <v>451.821044921875</v>
       </c>
       <c r="IK3" t="n">
-        <v>378.2872619628906</v>
+        <v>447.3904724121094</v>
       </c>
       <c r="IL3" t="n">
-        <v>376.4869689941406</v>
+        <v>436.7195434570312</v>
       </c>
       <c r="IM3" t="n">
-        <v>375.957763671875</v>
+        <v>432.1673278808594</v>
       </c>
       <c r="IN3" t="n">
-        <v>377.6006774902344</v>
+        <v>333.4887084960938</v>
       </c>
       <c r="IO3" t="n">
-        <v>375.614013671875</v>
+        <v>312.18310546875</v>
       </c>
       <c r="IP3" t="n">
-        <v>374.9224243164062</v>
+        <v>365.6025085449219</v>
       </c>
       <c r="IQ3" t="n">
-        <v>372.5529174804688</v>
+        <v>310.4764709472656</v>
       </c>
       <c r="IR3" t="n">
-        <v>368.2420959472656</v>
+        <v>294.330322265625</v>
       </c>
       <c r="IS3" t="n">
-        <v>367.5261535644531</v>
+        <v>292.0872192382812</v>
       </c>
       <c r="IT3" t="n">
-        <v>363.4397888183594</v>
+        <v>339.8398132324219</v>
       </c>
       <c r="IU3" t="n">
-        <v>363.8350524902344</v>
+        <v>393.1716918945312</v>
       </c>
       <c r="IV3" t="n">
-        <v>372.7751770019531</v>
+        <v>404.6452331542969</v>
       </c>
       <c r="IW3" t="n">
-        <v>372.2964477539062</v>
+        <v>412.5845642089844</v>
       </c>
       <c r="IX3" t="n">
-        <v>359.359619140625</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>356.1006469726562</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>355.0892944335938</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>354.8406066894531</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>356.947509765625</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>361.5641479492188</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>361.9988098144531</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>360.7242736816406</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>359.3662414550781</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>365.1625366210938</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>370.0521240234375</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>366.6135559082031</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>368.0001220703125</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>366.5432739257812</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>359.0959777832031</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>366.7845153808594</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>367.4130859375</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>368.3006896972656</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>368.4938354492188</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>367.8638610839844</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>369.4602966308594</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>370.4854736328125</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>370.7014465332031</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>371.2182006835938</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>371.8196105957031</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>373.0488586425781</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>374.1519775390625</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>374.7181701660156</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>374.514404296875</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>371.1243591308594</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>361.1923828125</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>337.7579650878906</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>313.00830078125</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>259.7530517578125</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>246.3442687988281</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>233.5409240722656</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>226.7672576904297</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>228.2495269775391</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>243.7317810058594</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>254.9771423339844</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>268.1243896484375</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>283.4392395019531</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>302.0328979492188</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>317.7220458984375</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>343.8050231933594</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>364.716064453125</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>369.2706604003906</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>372.3450012207031</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>373.4988098144531</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>372.3868103027344</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>373.1782836914062</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>372.9838562011719</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>371.8753051757812</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>373.3579711914062</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>370.1910095214844</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>371.2736511230469</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>370.5895690917969</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>371.1300659179688</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>372.0973205566406</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>372.3319396972656</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>376.2372436523438</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>378.7911376953125</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>379.9122314453125</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>380.8206176757812</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>383.0254821777344</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>383.0802917480469</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>383.4624938964844</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>383.245361328125</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>383.18896484375</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>386.6681823730469</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>392.3944396972656</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>403.5753479003906</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>421.5095825195312</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>432.9989929199219</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>417.1601257324219</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>421.8692932128906</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>464.1109619140625</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>446.26904296875</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>485.0625305175781</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>499.3128662109375</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>488.2751159667969</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>484.580322265625</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>480.272705078125</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>479.9826049804688</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>466.3345947265625</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>453.1717529296875</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>446.7090148925781</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>467.0746459960938</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>485.5331115722656</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>492.1211242675781</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>503.6560668945312</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>489.2283935546875</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>461.7338562011719</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>355.9662475585938</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>383.1117248535156</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>407.0575256347656</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>530.6729125976562</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>532.0928344726562</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>350.1941528320312</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>259.2577514648438</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>771.9593505859375</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>329.658203125</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>334.97216796875</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>260.8117065429688</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>123.6306533813477</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>170.8256225585938</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>293.4601440429688</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>317.978271484375</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>411.3842468261719</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>622.8731689453125</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>889.5753784179688</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>916.4883422851562</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>722.4310302734375</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>726.2008056640625</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>663.6216430664062</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>572.9011840820312</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>502.7933654785156</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>470.8213195800781</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>556.1561889648438</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>530.4022216796875</v>
+        <v>446.7986145019531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>945.9761352539062</v>
+        <v>962.6317749023438</v>
       </c>
       <c r="B4" t="n">
-        <v>972.6957397460938</v>
+        <v>977.6383666992188</v>
       </c>
       <c r="C4" t="n">
-        <v>982.6022338867188</v>
+        <v>988.222900390625</v>
       </c>
       <c r="D4" t="n">
-        <v>981.9757080078125</v>
+        <v>997.962646484375</v>
       </c>
       <c r="E4" t="n">
-        <v>972.7339477539062</v>
+        <v>996.2763671875</v>
       </c>
       <c r="F4" t="n">
-        <v>982.7781372070312</v>
+        <v>1002.979125976562</v>
       </c>
       <c r="G4" t="n">
-        <v>976.2011108398438</v>
+        <v>1038.647338867188</v>
       </c>
       <c r="H4" t="n">
-        <v>979.2568969726562</v>
+        <v>1048.177612304688</v>
       </c>
       <c r="I4" t="n">
-        <v>981.0712890625</v>
+        <v>1039.2841796875</v>
       </c>
       <c r="J4" t="n">
-        <v>978.6748046875</v>
+        <v>1038.662231445312</v>
       </c>
       <c r="K4" t="n">
-        <v>973.3441162109375</v>
+        <v>1035.742553710938</v>
       </c>
       <c r="L4" t="n">
-        <v>967.8131103515625</v>
+        <v>1034.690795898438</v>
       </c>
       <c r="M4" t="n">
-        <v>961.2115478515625</v>
+        <v>1038.423095703125</v>
       </c>
       <c r="N4" t="n">
-        <v>965.0853271484375</v>
+        <v>1054.639892578125</v>
       </c>
       <c r="O4" t="n">
-        <v>996.829833984375</v>
+        <v>1331.198364257812</v>
       </c>
       <c r="P4" t="n">
-        <v>1013.980590820312</v>
+        <v>1361.489624023438</v>
       </c>
       <c r="Q4" t="n">
-        <v>1032.222412109375</v>
+        <v>1393.533569335938</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.720336914062</v>
+        <v>1411.378295898438</v>
       </c>
       <c r="S4" t="n">
-        <v>1071.923217773438</v>
+        <v>1434.997314453125</v>
       </c>
       <c r="T4" t="n">
-        <v>1096.502685546875</v>
+        <v>1452.900634765625</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.131469726562</v>
+        <v>1475.250244140625</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.409057617188</v>
+        <v>1482.352661132812</v>
       </c>
       <c r="W4" t="n">
-        <v>1068.39794921875</v>
+        <v>1490.74658203125</v>
       </c>
       <c r="X4" t="n">
-        <v>1055.30908203125</v>
+        <v>1506.62158203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1039.54931640625</v>
+        <v>1538.669189453125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1039.902587890625</v>
+        <v>1563.805786132812</v>
       </c>
       <c r="AA4" t="n">
-        <v>1045.767944335938</v>
+        <v>1582.423095703125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1065.721069335938</v>
+        <v>1602.069702148438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1083.5673828125</v>
+        <v>1626.111938476562</v>
       </c>
       <c r="AD4" t="n">
-        <v>1107.847412109375</v>
+        <v>1640.635131835938</v>
       </c>
       <c r="AE4" t="n">
-        <v>1135.191284179688</v>
+        <v>1656.956909179688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1162.630493164062</v>
+        <v>1687.24072265625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1183.928466796875</v>
+        <v>1705.556762695312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1217.938842773438</v>
+        <v>1723.80615234375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1240.71533203125</v>
+        <v>1748.725952148438</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1246.799194335938</v>
+        <v>1766.75439453125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1257.278198242188</v>
+        <v>1780.915649414062</v>
       </c>
       <c r="AL4" t="n">
-        <v>1270.091430664062</v>
+        <v>1783.799194335938</v>
       </c>
       <c r="AM4" t="n">
-        <v>1267.239990234375</v>
+        <v>1783.370483398438</v>
       </c>
       <c r="AN4" t="n">
-        <v>1279.2958984375</v>
+        <v>1785.76318359375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1301.94091796875</v>
+        <v>1800.130981445312</v>
       </c>
       <c r="AP4" t="n">
-        <v>1310.842163085938</v>
+        <v>1811.44775390625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1324.331665039062</v>
+        <v>1816.544555664062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1338.19677734375</v>
+        <v>1822.425415039062</v>
       </c>
       <c r="AS4" t="n">
-        <v>1344.438354492188</v>
+        <v>1822.32080078125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1341.904907226562</v>
+        <v>1822.511596679688</v>
       </c>
       <c r="AU4" t="n">
-        <v>1333.908325195312</v>
+        <v>1817.442749023438</v>
       </c>
       <c r="AV4" t="n">
-        <v>1296.1708984375</v>
+        <v>1807.427734375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1253.82373046875</v>
+        <v>1787.899291992188</v>
       </c>
       <c r="AX4" t="n">
-        <v>1218.026977539062</v>
+        <v>1773.484985351562</v>
       </c>
       <c r="AY4" t="n">
-        <v>1190.739379882812</v>
+        <v>1761.200317382812</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1143.941650390625</v>
+        <v>1753.83740234375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1104.862670898438</v>
+        <v>1791.630249023438</v>
       </c>
       <c r="BB4" t="n">
-        <v>1078.477783203125</v>
+        <v>1794.187133789062</v>
       </c>
       <c r="BC4" t="n">
-        <v>1066.935791015625</v>
+        <v>1822.44189453125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1058.829345703125</v>
+        <v>1918.364379882812</v>
       </c>
       <c r="BE4" t="n">
-        <v>1051.686279296875</v>
+        <v>1928.989379882812</v>
       </c>
       <c r="BF4" t="n">
-        <v>1040.59033203125</v>
+        <v>1889.79736328125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1043.653198242188</v>
+        <v>1943.30810546875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1046.223022460938</v>
+        <v>1937.43212890625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1038.895385742188</v>
+        <v>1906.252563476562</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1032.36181640625</v>
+        <v>1931.598022460938</v>
       </c>
       <c r="BK4" t="n">
-        <v>1035.228759765625</v>
+        <v>1926.16357421875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1042.337524414062</v>
+        <v>1924.209106445312</v>
       </c>
       <c r="BM4" t="n">
-        <v>1053.181762695312</v>
+        <v>1924.4072265625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1055.5458984375</v>
+        <v>1923.720092773438</v>
       </c>
       <c r="BO4" t="n">
-        <v>1046.412963867188</v>
+        <v>1923.159301757812</v>
       </c>
       <c r="BP4" t="n">
-        <v>1040.623413085938</v>
+        <v>1917.457153320312</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1039.077026367188</v>
+        <v>1915.622680664062</v>
       </c>
       <c r="BR4" t="n">
-        <v>1038.9404296875</v>
+        <v>1914.6474609375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1036.706420898438</v>
+        <v>1916.120361328125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1038.560424804688</v>
+        <v>1921.374145507812</v>
       </c>
       <c r="BU4" t="n">
-        <v>1040.018676757812</v>
+        <v>1920.69921875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1041.21923828125</v>
+        <v>1903.121459960938</v>
       </c>
       <c r="BW4" t="n">
-        <v>1041.328491210938</v>
+        <v>1880.44970703125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1041.665771484375</v>
+        <v>1875.022705078125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1041.552368164062</v>
+        <v>1880.42236328125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1039.228637695312</v>
+        <v>1891.704956054688</v>
       </c>
       <c r="CA4" t="n">
-        <v>1036.094848632812</v>
+        <v>1885.296508789062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1033.388061523438</v>
+        <v>1855.31591796875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1030.669677734375</v>
+        <v>1857.270263671875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1034.672241210938</v>
+        <v>1858.918212890625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1033.217163085938</v>
+        <v>1855.131225585938</v>
       </c>
       <c r="CF4" t="n">
-        <v>1026.699829101562</v>
+        <v>1849.696533203125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1023.3662109375</v>
+        <v>1847.208862304688</v>
       </c>
       <c r="CH4" t="n">
-        <v>1018.991821289062</v>
+        <v>1845.9951171875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1018.685913085938</v>
+        <v>1845.0009765625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1014.785766601562</v>
+        <v>1843.372436523438</v>
       </c>
       <c r="CK4" t="n">
-        <v>1014.281494140625</v>
+        <v>1841.451904296875</v>
       </c>
       <c r="CL4" t="n">
-        <v>1007.349243164062</v>
+        <v>1838.754028320312</v>
       </c>
       <c r="CM4" t="n">
-        <v>998.3687133789062</v>
+        <v>1834.0986328125</v>
       </c>
       <c r="CN4" t="n">
-        <v>993.8963012695312</v>
+        <v>1833.890380859375</v>
       </c>
       <c r="CO4" t="n">
-        <v>982.4442138671875</v>
+        <v>1831.717895507812</v>
       </c>
       <c r="CP4" t="n">
-        <v>950.9139404296875</v>
+        <v>1828.785034179688</v>
       </c>
       <c r="CQ4" t="n">
-        <v>925.1815185546875</v>
+        <v>1826.087280273438</v>
       </c>
       <c r="CR4" t="n">
-        <v>912.1522216796875</v>
+        <v>1825.589599609375</v>
       </c>
       <c r="CS4" t="n">
-        <v>892.9336547851562</v>
+        <v>1828.001586914062</v>
       </c>
       <c r="CT4" t="n">
-        <v>885.0328979492188</v>
+        <v>1830.15185546875</v>
       </c>
       <c r="CU4" t="n">
-        <v>901.107666015625</v>
+        <v>1832.39453125</v>
       </c>
       <c r="CV4" t="n">
-        <v>912.1356201171875</v>
+        <v>1830.285278320312</v>
       </c>
       <c r="CW4" t="n">
-        <v>934.06787109375</v>
+        <v>1831.18994140625</v>
       </c>
       <c r="CX4" t="n">
-        <v>988.1516723632812</v>
+        <v>1834.56689453125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1004.380126953125</v>
+        <v>1851.652954101562</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1046.242065429688</v>
+        <v>1848.580810546875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1066.503295898438</v>
+        <v>1843.675537109375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1082.66259765625</v>
+        <v>1846.961181640625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1092.47998046875</v>
+        <v>1827.591552734375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1111.156982421875</v>
+        <v>1828.553344726562</v>
       </c>
       <c r="DE4" t="n">
-        <v>1121.857299804688</v>
+        <v>1823.31396484375</v>
       </c>
       <c r="DF4" t="n">
-        <v>1119.402709960938</v>
+        <v>1830.80810546875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1114.76513671875</v>
+        <v>1834.511352539062</v>
       </c>
       <c r="DH4" t="n">
-        <v>1086.22607421875</v>
+        <v>1792.749755859375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1079.11376953125</v>
+        <v>1804.364990234375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1071.534912109375</v>
+        <v>1813.92578125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1069.203125</v>
+        <v>1793.218017578125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1069.607788085938</v>
+        <v>1786.511840820312</v>
       </c>
       <c r="DM4" t="n">
-        <v>1073.633056640625</v>
+        <v>1771.214477539062</v>
       </c>
       <c r="DN4" t="n">
-        <v>1073.001098632812</v>
+        <v>1770.127685546875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1067.140625</v>
+        <v>1767.446044921875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1060.877075195312</v>
+        <v>1745.644897460938</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1050.110961914062</v>
+        <v>1718.486938476562</v>
       </c>
       <c r="DR4" t="n">
-        <v>1044.954833984375</v>
+        <v>1724.293823242188</v>
       </c>
       <c r="DS4" t="n">
-        <v>1043.44775390625</v>
+        <v>1727.453857421875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1031.6728515625</v>
+        <v>1708.917846679688</v>
       </c>
       <c r="DU4" t="n">
-        <v>1018.635314941406</v>
+        <v>1703.781494140625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1018.471069335938</v>
+        <v>1701.928344726562</v>
       </c>
       <c r="DW4" t="n">
-        <v>1016.468017578125</v>
+        <v>1701.931396484375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1017.193725585938</v>
+        <v>1700.93505859375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1022.287414550781</v>
+        <v>1690.737670898438</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1038.962280273438</v>
+        <v>1711.477294921875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1044.150024414062</v>
+        <v>1715.4169921875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1046.387329101562</v>
+        <v>1735.809692382812</v>
       </c>
       <c r="EC4" t="n">
-        <v>1043.883544921875</v>
+        <v>1761.071533203125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1046.927490234375</v>
+        <v>1813.278076171875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1070.3603515625</v>
+        <v>1863.831665039062</v>
       </c>
       <c r="EF4" t="n">
-        <v>1080.388061523438</v>
+        <v>1940.89599609375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1106.417724609375</v>
+        <v>1953.838256835938</v>
       </c>
       <c r="EH4" t="n">
-        <v>1128.130981445312</v>
+        <v>1979.144653320312</v>
       </c>
       <c r="EI4" t="n">
-        <v>1151.880737304688</v>
+        <v>1970.735473632812</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1165.9111328125</v>
+        <v>1971.366577148438</v>
       </c>
       <c r="EK4" t="n">
-        <v>1189.677001953125</v>
+        <v>1966.599487304688</v>
       </c>
       <c r="EL4" t="n">
-        <v>1207.689208984375</v>
+        <v>1928.624145507812</v>
       </c>
       <c r="EM4" t="n">
-        <v>1234.67236328125</v>
+        <v>1918.713745117188</v>
       </c>
       <c r="EN4" t="n">
-        <v>1247.252319335938</v>
+        <v>1907.993530273438</v>
       </c>
       <c r="EO4" t="n">
-        <v>1266.424926757812</v>
+        <v>1860.500122070312</v>
       </c>
       <c r="EP4" t="n">
-        <v>1278.475463867188</v>
+        <v>1845.970703125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1317.679565429688</v>
+        <v>1820.664184570312</v>
       </c>
       <c r="ER4" t="n">
-        <v>1344.717651367188</v>
+        <v>1801.346313476562</v>
       </c>
       <c r="ES4" t="n">
-        <v>1393.293701171875</v>
+        <v>1800.932250976562</v>
       </c>
       <c r="ET4" t="n">
-        <v>1424.549072265625</v>
+        <v>1800.856567382812</v>
       </c>
       <c r="EU4" t="n">
-        <v>1440.84423828125</v>
+        <v>1803.022583007812</v>
       </c>
       <c r="EV4" t="n">
-        <v>1487.725830078125</v>
+        <v>1843.177734375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1580.486938476562</v>
+        <v>1848.498901367188</v>
       </c>
       <c r="EX4" t="n">
-        <v>1627.529418945312</v>
+        <v>1848.873168945312</v>
       </c>
       <c r="EY4" t="n">
-        <v>1661.75927734375</v>
+        <v>1850.268676757812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1671.630981445312</v>
+        <v>1844.90869140625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1694.482543945312</v>
+        <v>1836.957153320312</v>
       </c>
       <c r="FB4" t="n">
-        <v>1699.87744140625</v>
+        <v>1804.954956054688</v>
       </c>
       <c r="FC4" t="n">
-        <v>1699.94970703125</v>
+        <v>1734.763305664062</v>
       </c>
       <c r="FD4" t="n">
-        <v>1715.876586914062</v>
+        <v>1663.045043945312</v>
       </c>
       <c r="FE4" t="n">
-        <v>1720.022705078125</v>
+        <v>1635.7236328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1725.471557617188</v>
+        <v>1548.934936523438</v>
       </c>
       <c r="FG4" t="n">
-        <v>1730.91943359375</v>
+        <v>1515.245239257812</v>
       </c>
       <c r="FH4" t="n">
-        <v>1736.832397460938</v>
+        <v>1446.10546875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1744.616455078125</v>
+        <v>1415.259033203125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1747.084350585938</v>
+        <v>1366.857543945312</v>
       </c>
       <c r="FK4" t="n">
-        <v>1789.028442382812</v>
+        <v>1334.178955078125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1820.325561523438</v>
+        <v>1322.504272460938</v>
       </c>
       <c r="FM4" t="n">
-        <v>1878.874145507812</v>
+        <v>1294.797973632812</v>
       </c>
       <c r="FN4" t="n">
-        <v>1917.493530273438</v>
+        <v>1283.239868164062</v>
       </c>
       <c r="FO4" t="n">
-        <v>1943.083129882812</v>
+        <v>1266.092529296875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2041.828002929688</v>
+        <v>1257.885498046875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2043.362426757812</v>
+        <v>1253.139038085938</v>
       </c>
       <c r="FR4" t="n">
-        <v>2086.611572265625</v>
+        <v>1224.205078125</v>
       </c>
       <c r="FS4" t="n">
-        <v>2128.46142578125</v>
+        <v>1208.164184570312</v>
       </c>
       <c r="FT4" t="n">
-        <v>2143.992919921875</v>
+        <v>1188.367919921875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2132.005615234375</v>
+        <v>1167.732299804688</v>
       </c>
       <c r="FV4" t="n">
-        <v>2125.75244140625</v>
+        <v>1150.636108398438</v>
       </c>
       <c r="FW4" t="n">
-        <v>2103.130859375</v>
+        <v>1113.063232421875</v>
       </c>
       <c r="FX4" t="n">
-        <v>2103.758544921875</v>
+        <v>1104.649169921875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2098.144775390625</v>
+        <v>1069.399047851562</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2095.3818359375</v>
+        <v>1053.0634765625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2092.827880859375</v>
+        <v>1016.875793457031</v>
       </c>
       <c r="GB4" t="n">
-        <v>2086.591552734375</v>
+        <v>999.1737060546875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2091.818603515625</v>
+        <v>958.6270751953125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2102.72021484375</v>
+        <v>940.9884033203125</v>
       </c>
       <c r="GE4" t="n">
-        <v>2105.385009765625</v>
+        <v>915.2562866210938</v>
       </c>
       <c r="GF4" t="n">
-        <v>2106.11572265625</v>
+        <v>880.89208984375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2103.394775390625</v>
+        <v>862.6931762695312</v>
       </c>
       <c r="GH4" t="n">
-        <v>2125.269287109375</v>
+        <v>819.3667602539062</v>
       </c>
       <c r="GI4" t="n">
-        <v>2137.03662109375</v>
+        <v>780.42041015625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2137.98828125</v>
+        <v>755.6787109375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2146.959228515625</v>
+        <v>710.5934448242188</v>
       </c>
       <c r="GL4" t="n">
-        <v>2155.7099609375</v>
+        <v>670.7383422851562</v>
       </c>
       <c r="GM4" t="n">
-        <v>2158.299072265625</v>
+        <v>634.1852416992188</v>
       </c>
       <c r="GN4" t="n">
-        <v>2159.61572265625</v>
+        <v>621.8711547851562</v>
       </c>
       <c r="GO4" t="n">
-        <v>2159.390625</v>
+        <v>633.4305419921875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2157.528076171875</v>
+        <v>643.4879150390625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2166.868896484375</v>
+        <v>653.3549194335938</v>
       </c>
       <c r="GR4" t="n">
-        <v>2167.177001953125</v>
+        <v>665.7093505859375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2169.511962890625</v>
+        <v>669.2202758789062</v>
       </c>
       <c r="GT4" t="n">
-        <v>2165.47802734375</v>
+        <v>678.1728515625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2156.481689453125</v>
+        <v>696.2310180664062</v>
       </c>
       <c r="GV4" t="n">
-        <v>2144.032470703125</v>
+        <v>732.8443603515625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2157.983642578125</v>
+        <v>764.55029296875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2144.348388671875</v>
+        <v>808.1988525390625</v>
       </c>
       <c r="GY4" t="n">
-        <v>2116.86669921875</v>
+        <v>860.8858032226562</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2124.085693359375</v>
+        <v>899.887451171875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2133.80126953125</v>
+        <v>916.370849609375</v>
       </c>
       <c r="HB4" t="n">
-        <v>2141.031982421875</v>
+        <v>928.2337036132812</v>
       </c>
       <c r="HC4" t="n">
-        <v>2143.701904296875</v>
+        <v>994.705810546875</v>
       </c>
       <c r="HD4" t="n">
-        <v>2139.193115234375</v>
+        <v>1012.032165527344</v>
       </c>
       <c r="HE4" t="n">
-        <v>2150.1728515625</v>
+        <v>992.34814453125</v>
       </c>
       <c r="HF4" t="n">
-        <v>2181.07080078125</v>
+        <v>949.1697387695312</v>
       </c>
       <c r="HG4" t="n">
-        <v>2332.908447265625</v>
+        <v>902.9623413085938</v>
       </c>
       <c r="HH4" t="n">
-        <v>2513.7138671875</v>
+        <v>900.8255004882812</v>
       </c>
       <c r="HI4" t="n">
-        <v>2381.4248046875</v>
+        <v>883.4935302734375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2358.708251953125</v>
+        <v>838.6635131835938</v>
       </c>
       <c r="HK4" t="n">
-        <v>2126.295166015625</v>
+        <v>780.4486694335938</v>
       </c>
       <c r="HL4" t="n">
-        <v>2086.997802734375</v>
+        <v>759.055419921875</v>
       </c>
       <c r="HM4" t="n">
-        <v>2064.077880859375</v>
+        <v>751.85400390625</v>
       </c>
       <c r="HN4" t="n">
-        <v>2018.83203125</v>
+        <v>753.8814086914062</v>
       </c>
       <c r="HO4" t="n">
-        <v>2006.963256835938</v>
+        <v>862.1533813476562</v>
       </c>
       <c r="HP4" t="n">
-        <v>2005.94140625</v>
+        <v>887.91552734375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1971.114135742188</v>
+        <v>881.4692993164062</v>
       </c>
       <c r="HR4" t="n">
-        <v>1966.577270507812</v>
+        <v>857.5313110351562</v>
       </c>
       <c r="HS4" t="n">
-        <v>1975.568237304688</v>
+        <v>831.6122436523438</v>
       </c>
       <c r="HT4" t="n">
-        <v>1974.3759765625</v>
+        <v>803.7420043945312</v>
       </c>
       <c r="HU4" t="n">
-        <v>1974.506225585938</v>
+        <v>790.3221435546875</v>
       </c>
       <c r="HV4" t="n">
-        <v>1975.953247070312</v>
+        <v>783.239501953125</v>
       </c>
       <c r="HW4" t="n">
-        <v>1973.846313476562</v>
+        <v>765.9459228515625</v>
       </c>
       <c r="HX4" t="n">
-        <v>1998.024047851562</v>
+        <v>663.0947265625</v>
       </c>
       <c r="HY4" t="n">
-        <v>2021.687377929688</v>
+        <v>640.5280151367188</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2054.87744140625</v>
+        <v>491.8630065917969</v>
       </c>
       <c r="IA4" t="n">
-        <v>2040.8447265625</v>
+        <v>507.684326171875</v>
       </c>
       <c r="IB4" t="n">
-        <v>2041.027709960938</v>
+        <v>507.570556640625</v>
       </c>
       <c r="IC4" t="n">
-        <v>2041.854370117188</v>
+        <v>502.7344360351562</v>
       </c>
       <c r="ID4" t="n">
-        <v>2038.773071289062</v>
+        <v>501.8212280273438</v>
       </c>
       <c r="IE4" t="n">
-        <v>2038.780151367188</v>
+        <v>512.8368530273438</v>
       </c>
       <c r="IF4" t="n">
-        <v>2017.234741210938</v>
+        <v>559.1198120117188</v>
       </c>
       <c r="IG4" t="n">
-        <v>1999.619506835938</v>
+        <v>568.9903564453125</v>
       </c>
       <c r="IH4" t="n">
-        <v>2006.7314453125</v>
+        <v>599.6533813476562</v>
       </c>
       <c r="II4" t="n">
-        <v>2005.887084960938</v>
+        <v>588.4410400390625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2016.7373046875</v>
+        <v>547.1762084960938</v>
       </c>
       <c r="IK4" t="n">
-        <v>2020.032470703125</v>
+        <v>521.8775634765625</v>
       </c>
       <c r="IL4" t="n">
-        <v>2031.731567382812</v>
+        <v>488.8421325683594</v>
       </c>
       <c r="IM4" t="n">
-        <v>2033.767822265625</v>
+        <v>440.5006713867188</v>
       </c>
       <c r="IN4" t="n">
-        <v>2039.519897460938</v>
+        <v>415.353271484375</v>
       </c>
       <c r="IO4" t="n">
-        <v>2106.9091796875</v>
+        <v>329.6358642578125</v>
       </c>
       <c r="IP4" t="n">
-        <v>2081.5625</v>
+        <v>259.4011535644531</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2118.27294921875</v>
+        <v>302.5865478515625</v>
       </c>
       <c r="IR4" t="n">
-        <v>2126.98095703125</v>
+        <v>301.6962280273438</v>
       </c>
       <c r="IS4" t="n">
-        <v>2118.255615234375</v>
+        <v>281.6064758300781</v>
       </c>
       <c r="IT4" t="n">
-        <v>2061.164794921875</v>
+        <v>243.9638671875</v>
       </c>
       <c r="IU4" t="n">
-        <v>2038.947021484375</v>
+        <v>233.0377807617188</v>
       </c>
       <c r="IV4" t="n">
-        <v>1994.309448242188</v>
+        <v>230.7301788330078</v>
       </c>
       <c r="IW4" t="n">
-        <v>1999.5341796875</v>
+        <v>210.2578277587891</v>
       </c>
       <c r="IX4" t="n">
-        <v>2026.067504882812</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2018.778442382812</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2023.88427734375</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2021.8876953125</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2009.57421875</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>1992.826171875</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>1993.638671875</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>1997.383544921875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2002.64599609375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>1986.266235351562</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>1978.33740234375</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>1997.7978515625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>1983.935791015625</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>1976.050537109375</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>1975.720336914062</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>1975.234375</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>1975.384033203125</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>1979.889282226562</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>1980.381591796875</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>1973.14794921875</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>1969.613891601562</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>1972.681030273438</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>1972.354125976562</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>1971.050903320312</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>1969.038208007812</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>1964.479614257812</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>1959.572265625</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>1954.221557617188</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>1944.782104492188</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>1916.517822265625</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>1872.43310546875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>1847.3349609375</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>1956.588500976562</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>1862.412963867188</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>1945.96435546875</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>1956.890014648438</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>1968.363525390625</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>1970.690185546875</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>1927.6611328125</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>1903.0146484375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>1929.03271484375</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>1919.96630859375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>1910.0576171875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>1890.301513671875</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>1931.24560546875</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>1969.483764648438</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>1984.04638671875</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2032.726318359375</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2035.772705078125</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2032.597900390625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2028.7080078125</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2029.042724609375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2020.51904296875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2003.578735351562</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>1966.952392578125</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>1962.746826171875</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>1965.790649414062</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>1965.859252929688</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>1968.427734375</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>1986.1142578125</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2010.482543945312</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2004.321411132812</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1972.75537109375</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1902.216552734375</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1781.687133789062</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1634.13916015625</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1548.45947265625</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1442.476806640625</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1322.156494140625</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1260.547973632812</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1167.272583007812</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1065.654418945312</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>986.6541748046875</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>912.5274658203125</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>797.2384033203125</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>731.8070068359375</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>645.255615234375</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>595.6128540039062</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>543.1431884765625</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>521.4588623046875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>524.9976806640625</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>581.2177734375</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>626.480224609375</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>659.1777954101562</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>690.9827270507812</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>704.4869384765625</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>708.5057373046875</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>708.8076171875</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>716.8846435546875</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>729.666015625</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>753.3930053710938</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>765.438232421875</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>768.6717529296875</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>704.4132690429688</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>705.3017578125</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>730.6300048828125</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>700.2945556640625</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>621.935546875</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>612.08642578125</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>784.2186889648438</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>586.6493530273438</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>736.8356323242188</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>1244.478515625</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>910.9199829101562</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>391.5451965332031</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>289.8233032226562</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>264.6737060546875</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>259.3798828125</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>224.9093322753906</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>188.6764068603516</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>129.6026306152344</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>125.905387878418</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>173.1487884521484</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>171.8537902832031</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>186.7737884521484</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>213.5377960205078</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>195.3307189941406</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>236.9365539550781</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>149.9590911865234</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>187.5306854248047</v>
+        <v>189.2404632568359</v>
       </c>
     </row>
   </sheetData>
